--- a/Elektro/Auflistung_KNX_Material.xlsx
+++ b/Elektro/Auflistung_KNX_Material.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tom\Documents\Umbau\Elektro\KMX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente_Thomas_Brandl\GIT_Repository\Umbau\Elektro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E2D4895-CB2C-4E89-AF89-69B1E672B9D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814FCE2A-95A1-4877-85E3-46B086B2C2B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6F8353D-0510-4489-8C99-156F73AB2641}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A6F8353D-0510-4489-8C99-156F73AB2641}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>KNX-Elektroinstallation</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Datenblatt</t>
+  </si>
+  <si>
+    <t>MDT Preisliste</t>
   </si>
 </sst>
 </file>
@@ -166,15 +169,16 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -534,41 +538,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398A786F-74ED-4B47-9A9F-B84A1C0EAFA8}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -591,14 +595,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>149.81</v>
       </c>
       <c r="E5" t="s">
@@ -607,19 +611,19 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <f>Tabelle1[[#This Row],[Vermutliche Menge]]*Tabelle1[[#This Row],[Preis]]</f>
         <v>149.81</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>143.21</v>
       </c>
       <c r="E6" t="s">
@@ -628,19 +632,19 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <f>Tabelle1[[#This Row],[Vermutliche Menge]]*Tabelle1[[#This Row],[Preis]]</f>
         <v>143.21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>137.63</v>
       </c>
       <c r="E7" t="s">
@@ -649,19 +653,19 @@
       <c r="F7">
         <v>4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <f>Tabelle1[[#This Row],[Vermutliche Menge]]*Tabelle1[[#This Row],[Preis]]</f>
         <v>550.52</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>121.2</v>
       </c>
       <c r="E8" t="s">
@@ -670,19 +674,19 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <f>Tabelle1[[#This Row],[Vermutliche Menge]]*Tabelle1[[#This Row],[Preis]]</f>
         <v>121.2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>26.27</v>
       </c>
       <c r="E9" t="s">
@@ -691,19 +695,22 @@
       <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <f>Tabelle1[[#This Row],[Vermutliche Menge]]*Tabelle1[[#This Row],[Preis]]</f>
         <v>105.08</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>216.2</v>
       </c>
       <c r="E10" t="s">
@@ -712,19 +719,19 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <f>Tabelle1[[#This Row],[Vermutliche Menge]]*Tabelle1[[#This Row],[Preis]]</f>
         <v>216.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>249.69</v>
       </c>
       <c r="E11" t="s">
@@ -733,17 +740,17 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <f>Tabelle1[[#This Row],[Vermutliche Menge]]*Tabelle1[[#This Row],[Preis]]</f>
         <v>249.69</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F12">
         <f>SUM(Tabelle1[Vermutliche Menge])</f>
         <v>13</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <f>SUM(Tabelle1[Endpreis])</f>
         <v>1535.71</v>
       </c>
@@ -760,11 +767,12 @@
     <hyperlink ref="B8" r:id="rId5" tooltip="MDT AKH-0600.02 Heizungsaktor 3TE REG 24-230VAC 6-fach" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/heizungsaktoren/mdt-akh-0600-02-heizungsaktor-3te-reg-24-230vac-6-fach.html" xr:uid="{DC9A9F9B-849D-41AB-AE04-7B5B9F0DB6C9}"/>
     <hyperlink ref="B11" r:id="rId6" tooltip="MDT AKD-0401.02 Dimmaktor 6TE REG 250W 230VAC mit Wirkleistungsmessung 4-fach" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/dimmaktoren/mdt-akd-0401-02-dimmaktor-6te-reg-250w-230vac-mit-wirkleistungsmessung-4-fach.html" xr:uid="{784BF359-713B-48A6-AECD-9924909651E5}"/>
     <hyperlink ref="B9" r:id="rId7" display="https://www.voltus.de/?cl=details&amp;anid=dc7d3d94598bcca1b0cb6028bb0a05ee" xr:uid="{A682DA0F-3E44-499B-BB59-0919BCDE1553}"/>
+    <hyperlink ref="J9" r:id="rId8" location="page=5" xr:uid="{0C79149C-496F-49E4-8921-D6743FE4BAFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Elektro/Auflistung_KNX_Material.xlsx
+++ b/Elektro/Auflistung_KNX_Material.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente_Thomas_Brandl\GIT_Repository\Umbau\Elektro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tom\Documents\Umbau\Elektro\KMX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814FCE2A-95A1-4877-85E3-46B086B2C2B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094C494D-0C35-4974-B783-AFEA560C0D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A6F8353D-0510-4489-8C99-156F73AB2641}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6F8353D-0510-4489-8C99-156F73AB2641}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
+    <sheet name="Küche" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>KNX-Elektroinstallation</t>
   </si>
@@ -47,9 +48,6 @@
     <t>Kategorie</t>
   </si>
   <si>
-    <t>Vermutliche Menge</t>
-  </si>
-  <si>
     <t>Herstellernummer</t>
   </si>
   <si>
@@ -113,7 +111,34 @@
     <t>Datenblatt</t>
   </si>
   <si>
-    <t>MDT Preisliste</t>
+    <t>Küche</t>
+  </si>
+  <si>
+    <t>Esszimmer</t>
+  </si>
+  <si>
+    <t>Wohnzimmer</t>
+  </si>
+  <si>
+    <t>Speis</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Gang</t>
+  </si>
+  <si>
+    <t>Schalafzimmer</t>
+  </si>
+  <si>
+    <t>Klo</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Menge</t>
   </si>
 </sst>
 </file>
@@ -123,7 +148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +167,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,23 +200,51 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -221,19 +280,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FFD03A8-96BD-4E09-BF02-3DEFE14EA902}" name="Tabelle1" displayName="Tabelle1" ref="A4:G12" totalsRowCount="1">
-  <autoFilter ref="A4:G11" xr:uid="{96AC54A7-3AF8-4232-A7CA-7456C1206A29}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FFD03A8-96BD-4E09-BF02-3DEFE14EA902}" name="Tabelle1" displayName="Tabelle1" ref="A4:O12" totalsRowCount="1" headerRowDxfId="0">
+  <autoFilter ref="A4:O11" xr:uid="{96AC54A7-3AF8-4232-A7CA-7456C1206A29}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{F5042A58-498A-4C97-BACF-B3C8328DBC5F}" name="Bezeichnung"/>
-    <tableColumn id="7" xr3:uid="{0CA81A17-BA15-4983-A8A2-0242A8B6B19B}" name="Herstellernummer" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{0CA81A17-BA15-4983-A8A2-0242A8B6B19B}" name="Herstellernummer" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{A7425F57-1716-41F9-9380-535B4BFD75F6}" name="Datenblatt"/>
     <tableColumn id="4" xr3:uid="{4718EDFC-681A-42DA-B15F-DB810E8C969C}" name="Preis" dataCellStyle="Währung"/>
     <tableColumn id="5" xr3:uid="{A4E90C18-896F-4852-8F34-1136052F1D04}" name="Kategorie"/>
-    <tableColumn id="6" xr3:uid="{12170A0C-6A62-4A83-B4B9-2C3B5CC64F58}" name="Vermutliche Menge" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Tabelle1[Vermutliche Menge])</totalsRowFormula>
+    <tableColumn id="2" xr3:uid="{6085A278-C5F2-4B9B-81ED-75AC44992D6A}" name="Küche"/>
+    <tableColumn id="9" xr3:uid="{71B99BB4-E121-4AC6-B2CC-B8283468FBBB}" name="Esszimmer"/>
+    <tableColumn id="10" xr3:uid="{E4662B22-8FAD-414C-AAE6-B24E2CAB28D4}" name="Wohnzimmer"/>
+    <tableColumn id="11" xr3:uid="{204170EB-6A51-4091-9F43-2BB5DD265154}" name="Speis"/>
+    <tableColumn id="12" xr3:uid="{18FF780B-8CBB-488D-B52A-5E6374864CB2}" name="Bad"/>
+    <tableColumn id="13" xr3:uid="{57EE2B1E-BB13-46B9-B6BC-CF4F5FCCDB66}" name="Gang"/>
+    <tableColumn id="14" xr3:uid="{E92F9A3C-E1C5-4882-916E-DA389241E99B}" name="Schalafzimmer"/>
+    <tableColumn id="15" xr3:uid="{3799BA4D-FAD2-475F-B312-0E659992795D}" name="Klo"/>
+    <tableColumn id="6" xr3:uid="{12170A0C-6A62-4A83-B4B9-2C3B5CC64F58}" name="Menge" totalsRowFunction="custom">
+      <calculatedColumnFormula>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabelle1[Menge])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E30A86F8-AD60-4262-90C1-41270FEC02A0}" name="Endpreis" totalsRowFunction="custom" totalsRowDxfId="0" dataCellStyle="Währung" totalsRowCellStyle="Währung">
-      <calculatedColumnFormula>Tabelle1[[#This Row],[Vermutliche Menge]]*Tabelle1[[#This Row],[Preis]]</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{E30A86F8-AD60-4262-90C1-41270FEC02A0}" name="Endpreis" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="Währung">
+      <calculatedColumnFormula>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Tabelle1[Endpreis])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -538,23 +622,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398A786F-74ED-4B47-9A9F-B84A1C0EAFA8}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.21875" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="3.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="9.21875" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="7.44140625" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="3.5546875" customWidth="1"/>
+    <col min="7" max="13" width="3.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -563,202 +650,288 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="4" spans="1:15" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>149.81</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5">
+        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <f>Tabelle1[[#This Row],[Vermutliche Menge]]*Tabelle1[[#This Row],[Preis]]</f>
+      <c r="O5" s="1">
+        <f>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</f>
         <v>149.81</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1">
         <v>143.21</v>
       </c>
       <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6">
+        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <f>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</f>
+        <v>143.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <f>Tabelle1[[#This Row],[Vermutliche Menge]]*Tabelle1[[#This Row],[Preis]]</f>
-        <v>143.21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>137.63</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7">
+        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
         <v>4</v>
       </c>
-      <c r="G7" s="1">
-        <f>Tabelle1[[#This Row],[Vermutliche Menge]]*Tabelle1[[#This Row],[Preis]]</f>
+      <c r="O7" s="1">
+        <f>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</f>
         <v>550.52</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1">
         <v>121.2</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8">
+        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <f>Tabelle1[[#This Row],[Vermutliche Menge]]*Tabelle1[[#This Row],[Preis]]</f>
+      <c r="O8" s="1">
+        <f>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</f>
         <v>121.2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1">
         <v>26.27</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9" s="1">
-        <f>Tabelle1[[#This Row],[Vermutliche Menge]]*Tabelle1[[#This Row],[Preis]]</f>
-        <v>105.08</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9">
+        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
+        <v>5</v>
+      </c>
+      <c r="O9" s="1">
+        <f>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</f>
+        <v>131.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1">
         <v>216.2</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10">
+        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
         <v>1</v>
       </c>
-      <c r="G10" s="1">
-        <f>Tabelle1[[#This Row],[Vermutliche Menge]]*Tabelle1[[#This Row],[Preis]]</f>
+      <c r="O10" s="1">
+        <f>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</f>
         <v>216.2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1">
         <v>249.69</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <f>Tabelle1[[#This Row],[Vermutliche Menge]]*Tabelle1[[#This Row],[Preis]]</f>
-        <v>249.69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12">
-        <f>SUM(Tabelle1[Vermutliche Menge])</f>
+        <v>16</v>
+      </c>
+      <c r="N11">
+        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <f>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <f>SUM(Tabelle1[Menge])</f>
         <v>13</v>
       </c>
-      <c r="G12" s="1">
+      <c r="O12" s="4">
         <f>SUM(Tabelle1[Endpreis])</f>
-        <v>1535.71</v>
+        <v>1312.29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A1:O2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" tooltip="MDT JAL-0810.02 Jalousieaktor 8TE REG 10A 230VAC 8-fach" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/jalousieaktoren-o/mdt-jal-0810-02-jalousieaktor-8te-reg-10a-230vac-8-fach.html" xr:uid="{E5F4C422-F1FA-453E-A08A-9ECCDC6FCD6B}"/>
     <hyperlink ref="B5" r:id="rId2" tooltip="MDT STV-0640.02 Busspannungsversorgung 4TE REG 640mA " display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/spannungsversorgung/mdt-stv-0640-02-busspannungsversorgung-4te-reg-640ma.html" xr:uid="{81F3E89C-8D36-489C-9F86-4596235CF013}"/>
@@ -767,12 +940,25 @@
     <hyperlink ref="B8" r:id="rId5" tooltip="MDT AKH-0600.02 Heizungsaktor 3TE REG 24-230VAC 6-fach" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/heizungsaktoren/mdt-akh-0600-02-heizungsaktor-3te-reg-24-230vac-6-fach.html" xr:uid="{DC9A9F9B-849D-41AB-AE04-7B5B9F0DB6C9}"/>
     <hyperlink ref="B11" r:id="rId6" tooltip="MDT AKD-0401.02 Dimmaktor 6TE REG 250W 230VAC mit Wirkleistungsmessung 4-fach" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/dimmaktoren/mdt-akd-0401-02-dimmaktor-6te-reg-250w-230vac-mit-wirkleistungsmessung-4-fach.html" xr:uid="{784BF359-713B-48A6-AECD-9924909651E5}"/>
     <hyperlink ref="B9" r:id="rId7" display="https://www.voltus.de/?cl=details&amp;anid=dc7d3d94598bcca1b0cb6028bb0a05ee" xr:uid="{A682DA0F-3E44-499B-BB59-0919BCDE1553}"/>
-    <hyperlink ref="J9" r:id="rId8" location="page=5" xr:uid="{0C79149C-496F-49E4-8921-D6743FE4BAFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6D519D-FE12-4271-8CB7-38306EB28B0C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Elektro/Auflistung_KNX_Material.xlsx
+++ b/Elektro/Auflistung_KNX_Material.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tom\Documents\Umbau\Elektro\KMX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente_Thomas_Brandl\GIT_Repository\Umbau\Elektro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094C494D-0C35-4974-B783-AFEA560C0D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394A5F7E-E262-4BE6-BAB9-924B76FBF12E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6F8353D-0510-4489-8C99-156F73AB2641}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6F8353D-0510-4489-8C99-156F73AB2641}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
-    <sheet name="Küche" sheetId="2" r:id="rId2"/>
+    <sheet name="Schaltstellen" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>KNX-Elektroinstallation</t>
   </si>
@@ -135,10 +135,40 @@
     <t>Klo</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Menge</t>
+  </si>
+  <si>
+    <t>Schaltaktor</t>
+  </si>
+  <si>
+    <t>Lampengruppe</t>
+  </si>
+  <si>
+    <t>Dimmgruppe</t>
+  </si>
+  <si>
+    <t>Steckdosengruppe</t>
+  </si>
+  <si>
+    <t>Spalte1</t>
+  </si>
+  <si>
+    <t>Summe</t>
+  </si>
+  <si>
+    <t>Binäreingang</t>
+  </si>
+  <si>
+    <t>MDT BE-TA5504.G1 Taster 55mm UP 4-fach</t>
+  </si>
+  <si>
+    <t>4-fach Taster</t>
+  </si>
+  <si>
+    <t>MDT AKK-1616.03 Schaltaktor Kompakt 16-fach</t>
+  </si>
+  <si>
+    <t>MDT BE-06001.02 Tasterschnittstelle UP potentialfrei 6-fach</t>
   </si>
 </sst>
 </file>
@@ -148,7 +178,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,21 +207,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -200,14 +255,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -216,16 +268,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <b val="0"/>
@@ -266,6 +325,37 @@
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -280,8 +370,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FFD03A8-96BD-4E09-BF02-3DEFE14EA902}" name="Tabelle1" displayName="Tabelle1" ref="A4:O12" totalsRowCount="1" headerRowDxfId="0">
-  <autoFilter ref="A4:O11" xr:uid="{96AC54A7-3AF8-4232-A7CA-7456C1206A29}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FFD03A8-96BD-4E09-BF02-3DEFE14EA902}" name="Tabelle1" displayName="Tabelle1" ref="A4:O15" totalsRowCount="1" headerRowDxfId="5">
+  <autoFilter ref="A4:O14" xr:uid="{96AC54A7-3AF8-4232-A7CA-7456C1206A29}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -300,7 +390,7 @@
   </autoFilter>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{F5042A58-498A-4C97-BACF-B3C8328DBC5F}" name="Bezeichnung"/>
-    <tableColumn id="7" xr3:uid="{0CA81A17-BA15-4983-A8A2-0242A8B6B19B}" name="Herstellernummer" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{0CA81A17-BA15-4983-A8A2-0242A8B6B19B}" name="Herstellernummer" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{A7425F57-1716-41F9-9380-535B4BFD75F6}" name="Datenblatt"/>
     <tableColumn id="4" xr3:uid="{4718EDFC-681A-42DA-B15F-DB810E8C969C}" name="Preis" dataCellStyle="Währung"/>
     <tableColumn id="5" xr3:uid="{A4E90C18-896F-4852-8F34-1136052F1D04}" name="Kategorie"/>
@@ -316,12 +406,33 @@
       <calculatedColumnFormula>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</calculatedColumnFormula>
       <totalsRowFormula>SUM(Tabelle1[Menge])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E30A86F8-AD60-4262-90C1-41270FEC02A0}" name="Endpreis" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="Währung">
+    <tableColumn id="8" xr3:uid="{E30A86F8-AD60-4262-90C1-41270FEC02A0}" name="Endpreis" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Währung">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Tabelle1[Endpreis])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AAEA202F-2E12-4951-852F-9E886146E92D}" name="Tabelle2" displayName="Tabelle2" ref="A2:J5" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A2:J5" xr:uid="{64997CFE-B058-4B80-8521-0376DB419888}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{A1D940C5-2DB8-4D38-B7EB-A7046EC82315}" name="Spalte1"/>
+    <tableColumn id="2" xr3:uid="{DDF37692-0B97-4EFA-A254-501428F98AC7}" name="Küche"/>
+    <tableColumn id="3" xr3:uid="{0CC211E9-3E8B-4225-8060-D732679A1D25}" name="Esszimmer"/>
+    <tableColumn id="4" xr3:uid="{B0776194-2185-4A16-BB15-3EBC5FD9646A}" name="Wohnzimmer"/>
+    <tableColumn id="5" xr3:uid="{8C8ADB2C-52AC-486F-9B7F-0CE92A14546B}" name="Speis"/>
+    <tableColumn id="6" xr3:uid="{37719EDB-C601-4604-9CE6-3E19F4DC3B38}" name="Bad"/>
+    <tableColumn id="7" xr3:uid="{07E1B0C6-C411-4574-8D01-297094ADFF8E}" name="Gang"/>
+    <tableColumn id="8" xr3:uid="{523F6610-FD02-45F2-B727-E43C97AB7701}" name="Schalafzimmer"/>
+    <tableColumn id="9" xr3:uid="{439EBBEB-C21F-4366-B359-B750404A6C1C}" name="Klo"/>
+    <tableColumn id="10" xr3:uid="{3550BC49-49F6-41E8-A343-46EDD7312783}" name="Summe" dataDxfId="3">
+      <calculatedColumnFormula>SUM(Tabelle2[[#This Row],[Küche]:[Klo]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -622,109 +733,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398A786F-74ED-4B47-9A9F-B84A1C0EAFA8}">
-  <dimension ref="A1:O12"/>
+  <sheetPr codeName="Tabelle1"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.21875" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="3.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9.21875" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="7.44140625" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="3.5546875" customWidth="1"/>
-    <col min="7" max="13" width="3.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="3.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="13" width="3.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="5" t="s">
+      <c r="N4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -737,8 +849,8 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="K5" t="s">
-        <v>33</v>
+      <c r="K5">
+        <v>1</v>
       </c>
       <c r="N5">
         <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
@@ -749,7 +861,7 @@
         <v>149.81</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -762,8 +874,8 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="K6" t="s">
-        <v>33</v>
+      <c r="K6">
+        <v>1</v>
       </c>
       <c r="N6">
         <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
@@ -774,7 +886,7 @@
         <v>143.21</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -787,17 +899,17 @@
       <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
       </c>
       <c r="N7">
         <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
@@ -808,7 +920,7 @@
         <v>550.52</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -821,8 +933,8 @@
       <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="K8" t="s">
-        <v>33</v>
+      <c r="K8">
+        <v>1</v>
       </c>
       <c r="N8">
         <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
@@ -833,7 +945,7 @@
         <v>121.2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -846,20 +958,20 @@
       <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" t="s">
-        <v>33</v>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
       </c>
       <c r="N9">
         <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
@@ -870,7 +982,7 @@
         <v>131.35</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -883,8 +995,8 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="K10" t="s">
-        <v>33</v>
+      <c r="K10">
+        <v>1</v>
       </c>
       <c r="N10">
         <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
@@ -895,7 +1007,7 @@
         <v>216.2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -908,23 +1020,104 @@
       <c r="E11" t="s">
         <v>16</v>
       </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
       <c r="N11">
         <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="1">
         <f>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>249.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1">
+        <v>237.51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
       <c r="N12">
+        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <f>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</f>
+        <v>237.51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1">
+        <v>51.16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <f>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</f>
+        <v>51.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1">
+        <v>54.21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
+        <v>2</v>
+      </c>
+      <c r="O14" s="1">
+        <f>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</f>
+        <v>108.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N15">
         <f>SUM(Tabelle1[Menge])</f>
-        <v>13</v>
-      </c>
-      <c r="O12" s="4">
+        <v>18</v>
+      </c>
+      <c r="O15" s="3">
         <f>SUM(Tabelle1[Endpreis])</f>
-        <v>1312.29</v>
+        <v>1959.0700000000002</v>
       </c>
     </row>
   </sheetData>
@@ -951,14 +1144,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6D519D-FE12-4271-8CB7-38306EB28B0C}">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Tabelle2"/>
+  <dimension ref="A2:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f>SUM(Tabelle2[[#This Row],[Küche]:[Klo]])</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f>SUM(Tabelle2[[#This Row],[Küche]:[Klo]])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f>SUM(Tabelle2[[#This Row],[Küche]:[Klo]])</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Elektro/Auflistung_KNX_Material.xlsx
+++ b/Elektro/Auflistung_KNX_Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente_Thomas_Brandl\GIT_Repository\Umbau\Elektro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394A5F7E-E262-4BE6-BAB9-924B76FBF12E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A665ED2-7A91-465C-8B54-C656D28E9611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6F8353D-0510-4489-8C99-156F73AB2641}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>KNX-Elektroinstallation</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Klo</t>
   </si>
   <si>
-    <t>Menge</t>
-  </si>
-  <si>
     <t>Schaltaktor</t>
   </si>
   <si>
@@ -169,6 +166,27 @@
   </si>
   <si>
     <t>MDT BE-06001.02 Tasterschnittstelle UP potentialfrei 6-fach</t>
+  </si>
+  <si>
+    <t>Multischaltaktor</t>
+  </si>
+  <si>
+    <t>MDT AKU-2416.02 Universalaktor 12TE REG 16A 230VAC 100µF 15EVG 24-fach</t>
+  </si>
+  <si>
+    <t>KNX-fähig</t>
+  </si>
+  <si>
+    <t>Menge KNX-Geräte</t>
+  </si>
+  <si>
+    <t>Anzahl Kanäle</t>
+  </si>
+  <si>
+    <t>Dimmaktor mit Wirkleistungsmesser</t>
+  </si>
+  <si>
+    <t>MDT AKD-0410V.02 Dimmaktor 4-fach 4TE REG 1-10V mit RGBW</t>
   </si>
 </sst>
 </file>
@@ -255,7 +273,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -268,9 +286,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
     </xf>
@@ -278,13 +293,19 @@
       <alignment horizontal="left" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <font>
         <b val="0"/>
@@ -321,6 +342,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -370,27 +395,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FFD03A8-96BD-4E09-BF02-3DEFE14EA902}" name="Tabelle1" displayName="Tabelle1" ref="A4:O15" totalsRowCount="1" headerRowDxfId="5">
-  <autoFilter ref="A4:O14" xr:uid="{96AC54A7-3AF8-4232-A7CA-7456C1206A29}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-    <filterColumn colId="11" hiddenButton="1"/>
-    <filterColumn colId="12" hiddenButton="1"/>
-    <filterColumn colId="13" hiddenButton="1"/>
-    <filterColumn colId="14" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FFD03A8-96BD-4E09-BF02-3DEFE14EA902}" name="Tabelle1" displayName="Tabelle1" ref="A4:Q17" totalsRowCount="1" headerRowDxfId="6">
+  <autoFilter ref="A4:Q16" xr:uid="{96AC54A7-3AF8-4232-A7CA-7456C1206A29}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="4-fach Taster"/>
+        <filter val="Binäreingang"/>
+        <filter val="Dimmaktor"/>
+        <filter val="Ethernet Interface"/>
+        <filter val="Glastaster"/>
+        <filter val="Heizungsaktor"/>
+        <filter val="Heizungsstelltrieb"/>
+        <filter val="Multischaltaktor"/>
+        <filter val="Netzteil"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
-  <tableColumns count="15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:Q16">
+    <sortCondition ref="A4:A16"/>
+  </sortState>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{F5042A58-498A-4C97-BACF-B3C8328DBC5F}" name="Bezeichnung"/>
-    <tableColumn id="7" xr3:uid="{0CA81A17-BA15-4983-A8A2-0242A8B6B19B}" name="Herstellernummer" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{EBD698E9-BE7C-4EEA-BF83-B807A3FE3703}" name="Anzahl Kanäle"/>
+    <tableColumn id="7" xr3:uid="{0CA81A17-BA15-4983-A8A2-0242A8B6B19B}" name="Herstellernummer" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{A7425F57-1716-41F9-9380-535B4BFD75F6}" name="Datenblatt"/>
     <tableColumn id="4" xr3:uid="{4718EDFC-681A-42DA-B15F-DB810E8C969C}" name="Preis" dataCellStyle="Währung"/>
     <tableColumn id="5" xr3:uid="{A4E90C18-896F-4852-8F34-1136052F1D04}" name="Kategorie"/>
@@ -402,13 +429,12 @@
     <tableColumn id="13" xr3:uid="{57EE2B1E-BB13-46B9-B6BC-CF4F5FCCDB66}" name="Gang"/>
     <tableColumn id="14" xr3:uid="{E92F9A3C-E1C5-4882-916E-DA389241E99B}" name="Schalafzimmer"/>
     <tableColumn id="15" xr3:uid="{3799BA4D-FAD2-475F-B312-0E659992795D}" name="Klo"/>
-    <tableColumn id="6" xr3:uid="{12170A0C-6A62-4A83-B4B9-2C3B5CC64F58}" name="Menge" totalsRowFunction="custom">
-      <calculatedColumnFormula>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Tabelle1[Menge])</totalsRowFormula>
+    <tableColumn id="17" xr3:uid="{17A122D9-4F1D-40D7-A3F8-16439D99B479}" name="KNX-fähig"/>
+    <tableColumn id="6" xr3:uid="{12170A0C-6A62-4A83-B4B9-2C3B5CC64F58}" name="Menge KNX-Geräte" totalsRowFunction="sum" dataDxfId="2">
+      <calculatedColumnFormula>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E30A86F8-AD60-4262-90C1-41270FEC02A0}" name="Endpreis" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Währung">
-      <calculatedColumnFormula>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Tabelle1[Endpreis])</totalsRowFormula>
+    <tableColumn id="8" xr3:uid="{E30A86F8-AD60-4262-90C1-41270FEC02A0}" name="Endpreis" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Währung">
+      <calculatedColumnFormula>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -416,7 +442,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AAEA202F-2E12-4951-852F-9E886146E92D}" name="Tabelle2" displayName="Tabelle2" ref="A2:J5" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AAEA202F-2E12-4951-852F-9E886146E92D}" name="Tabelle2" displayName="Tabelle2" ref="A2:J5" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A2:J5" xr:uid="{64997CFE-B058-4B80-8521-0376DB419888}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{A1D940C5-2DB8-4D38-B7EB-A7046EC82315}" name="Spalte1"/>
@@ -428,7 +454,7 @@
     <tableColumn id="7" xr3:uid="{07E1B0C6-C411-4574-8D01-297094ADFF8E}" name="Gang"/>
     <tableColumn id="8" xr3:uid="{523F6610-FD02-45F2-B727-E43C97AB7701}" name="Schalafzimmer"/>
     <tableColumn id="9" xr3:uid="{439EBBEB-C21F-4366-B359-B750404A6C1C}" name="Klo"/>
-    <tableColumn id="10" xr3:uid="{3550BC49-49F6-41E8-A343-46EDD7312783}" name="Summe" dataDxfId="3">
+    <tableColumn id="10" xr3:uid="{3550BC49-49F6-41E8-A343-46EDD7312783}" name="Summe" dataDxfId="4">
       <calculatedColumnFormula>SUM(Tabelle2[[#This Row],[Küche]:[Klo]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -734,405 +760,537 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398A786F-74ED-4B47-9A9F-B84A1C0EAFA8}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="3.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="13" width="3.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="6" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="4" spans="1:17" s="4" customFormat="1" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1">
+        <v>54.21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+        <v>108.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1">
+        <v>51.16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+        <v>51.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1">
+        <v>249.69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+        <v>249.69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1">
+        <v>140.07</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+        <v>140.07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1">
+        <v>143.21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+        <v>143.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1">
+        <v>137.63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>4</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+        <v>550.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1">
+        <v>121.2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+        <v>121.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1">
+        <v>26.27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+        <v>131.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>216.2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+        <v>216.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1">
+        <v>336.17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+        <v>336.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1">
+        <v>149.81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+        <v>149.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1">
-        <v>149.81</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="1">
+        <v>237.51</v>
+      </c>
+      <c r="F16" t="s">
         <v>13</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <f>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</f>
-        <v>149.81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1">
-        <v>143.21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <f>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</f>
-        <v>143.21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1">
-        <v>137.63</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
-        <v>4</v>
-      </c>
-      <c r="O7" s="1">
-        <f>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</f>
-        <v>550.52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1">
-        <v>121.2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
-        <v>1</v>
-      </c>
-      <c r="O8" s="1">
-        <f>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</f>
-        <v>121.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1">
-        <v>26.27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
-        <v>5</v>
-      </c>
-      <c r="O9" s="1">
-        <f>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</f>
-        <v>131.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1">
-        <v>216.2</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+        <v>237.51</v>
+      </c>
+    </row>
+    <row r="17" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <f>SUBTOTAL(109,Tabelle1[Menge KNX-Geräte])</f>
         <v>12</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="1">
-        <f>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</f>
-        <v>216.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1">
-        <v>249.69</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
-        <v>1</v>
-      </c>
-      <c r="O11" s="1">
-        <f>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</f>
-        <v>249.69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="1">
-        <v>237.51</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
-        <v>1</v>
-      </c>
-      <c r="O12" s="1">
-        <f>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</f>
-        <v>237.51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1">
-        <v>51.16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
-        <v>1</v>
-      </c>
-      <c r="O13" s="1">
-        <f>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</f>
-        <v>51.16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1">
-        <v>54.21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="N14">
-        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
-        <v>2</v>
-      </c>
-      <c r="O14" s="1">
-        <f>Tabelle1[[#This Row],[Menge]]*Tabelle1[[#This Row],[Preis]]</f>
-        <v>108.42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N15">
-        <f>SUM(Tabelle1[Menge])</f>
-        <v>18</v>
-      </c>
-      <c r="O15" s="3">
-        <f>SUM(Tabelle1[Endpreis])</f>
-        <v>1959.0700000000002</v>
+      <c r="Q17" s="3">
+        <f>SUBTOTAL(109,Tabelle1[Endpreis])</f>
+        <v>1731.9099999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A1:Q2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" tooltip="MDT JAL-0810.02 Jalousieaktor 8TE REG 10A 230VAC 8-fach" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/jalousieaktoren-o/mdt-jal-0810-02-jalousieaktor-8te-reg-10a-230vac-8-fach.html" xr:uid="{E5F4C422-F1FA-453E-A08A-9ECCDC6FCD6B}"/>
-    <hyperlink ref="B5" r:id="rId2" tooltip="MDT STV-0640.02 Busspannungsversorgung 4TE REG 640mA " display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/spannungsversorgung/mdt-stv-0640-02-busspannungsversorgung-4te-reg-640ma.html" xr:uid="{81F3E89C-8D36-489C-9F86-4596235CF013}"/>
-    <hyperlink ref="B6" r:id="rId3" tooltip="MDT SCN-IP000.03 IP Interface 2TE REG mit Email und Zeitserverfunktion " display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/linienkoppler-usb-ip-interface/mdt-scn-ip000-03-ip-interface-2te-reg-mit-email-und-zeitserverfunktion.html" xr:uid="{D41FC865-619D-4E1A-8832-E52C053C4D8B}"/>
-    <hyperlink ref="B7" r:id="rId4" tooltip="MDT BE-GT2TW.01 Glastaster II Smart mit 6 Sensorflächen Weiß" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/tastsensoren-o/mdt-be-gt2tw-01-glastaster-ii-smart-mit-6-sensorflaechen-weiss.html" xr:uid="{5E9101E6-79FC-40AB-B2F1-A4FA5363F5A9}"/>
-    <hyperlink ref="B8" r:id="rId5" tooltip="MDT AKH-0600.02 Heizungsaktor 3TE REG 24-230VAC 6-fach" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/heizungsaktoren/mdt-akh-0600-02-heizungsaktor-3te-reg-24-230vac-6-fach.html" xr:uid="{DC9A9F9B-849D-41AB-AE04-7B5B9F0DB6C9}"/>
-    <hyperlink ref="B11" r:id="rId6" tooltip="MDT AKD-0401.02 Dimmaktor 6TE REG 250W 230VAC mit Wirkleistungsmessung 4-fach" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/dimmaktoren/mdt-akd-0401-02-dimmaktor-6te-reg-250w-230vac-mit-wirkleistungsmessung-4-fach.html" xr:uid="{784BF359-713B-48A6-AECD-9924909651E5}"/>
-    <hyperlink ref="B9" r:id="rId7" display="https://www.voltus.de/?cl=details&amp;anid=dc7d3d94598bcca1b0cb6028bb0a05ee" xr:uid="{A682DA0F-3E44-499B-BB59-0919BCDE1553}"/>
+    <hyperlink ref="C13" r:id="rId1" tooltip="MDT JAL-0810.02 Jalousieaktor 8TE REG 10A 230VAC 8-fach" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/jalousieaktoren-o/mdt-jal-0810-02-jalousieaktor-8te-reg-10a-230vac-8-fach.html" xr:uid="{E5F4C422-F1FA-453E-A08A-9ECCDC6FCD6B}"/>
+    <hyperlink ref="C15" r:id="rId2" tooltip="MDT STV-0640.02 Busspannungsversorgung 4TE REG 640mA " display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/spannungsversorgung/mdt-stv-0640-02-busspannungsversorgung-4te-reg-640ma.html" xr:uid="{81F3E89C-8D36-489C-9F86-4596235CF013}"/>
+    <hyperlink ref="C9" r:id="rId3" tooltip="MDT SCN-IP000.03 IP Interface 2TE REG mit Email und Zeitserverfunktion " display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/linienkoppler-usb-ip-interface/mdt-scn-ip000-03-ip-interface-2te-reg-mit-email-und-zeitserverfunktion.html" xr:uid="{D41FC865-619D-4E1A-8832-E52C053C4D8B}"/>
+    <hyperlink ref="C10" r:id="rId4" tooltip="MDT BE-GT2TW.01 Glastaster II Smart mit 6 Sensorflächen Weiß" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/tastsensoren-o/mdt-be-gt2tw-01-glastaster-ii-smart-mit-6-sensorflaechen-weiss.html" xr:uid="{5E9101E6-79FC-40AB-B2F1-A4FA5363F5A9}"/>
+    <hyperlink ref="C11" r:id="rId5" tooltip="MDT AKH-0600.02 Heizungsaktor 3TE REG 24-230VAC 6-fach" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/heizungsaktoren/mdt-akh-0600-02-heizungsaktor-3te-reg-24-230vac-6-fach.html" xr:uid="{DC9A9F9B-849D-41AB-AE04-7B5B9F0DB6C9}"/>
+    <hyperlink ref="C7" r:id="rId6" tooltip="MDT AKD-0401.02 Dimmaktor 6TE REG 250W 230VAC mit Wirkleistungsmessung 4-fach" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/dimmaktoren/mdt-akd-0401-02-dimmaktor-6te-reg-250w-230vac-mit-wirkleistungsmessung-4-fach.html" xr:uid="{784BF359-713B-48A6-AECD-9924909651E5}"/>
+    <hyperlink ref="C12" r:id="rId7" display="https://www.voltus.de/?cl=details&amp;anid=dc7d3d94598bcca1b0cb6028bb0a05ee" xr:uid="{A682DA0F-3E44-499B-BB59-0919BCDE1553}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
@@ -1148,7 +1306,7 @@
   <dimension ref="A2:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,39 +1317,39 @@
   <sheetData>
     <row r="2" spans="1:10" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1218,7 +1376,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1242,20 +1400,20 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="J5">
         <f>SUM(Tabelle2[[#This Row],[Küche]:[Klo]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Elektro/Auflistung_KNX_Material.xlsx
+++ b/Elektro/Auflistung_KNX_Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente_Thomas_Brandl\GIT_Repository\Umbau\Elektro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A665ED2-7A91-465C-8B54-C656D28E9611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE59AFA-0C7F-4AD8-8D04-E7477F13C75D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6F8353D-0510-4489-8C99-156F73AB2641}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>KNX-Elektroinstallation</t>
   </si>
@@ -108,9 +108,6 @@
     <t>MERTEN 639125 Thermoelektrischer Stellantrieb 230 V</t>
   </si>
   <si>
-    <t>Datenblatt</t>
-  </si>
-  <si>
     <t>Küche</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>Steckdosengruppe</t>
   </si>
   <si>
-    <t>Spalte1</t>
-  </si>
-  <si>
     <t>Summe</t>
   </si>
   <si>
@@ -180,13 +174,43 @@
     <t>Menge KNX-Geräte</t>
   </si>
   <si>
-    <t>Anzahl Kanäle</t>
-  </si>
-  <si>
     <t>Dimmaktor mit Wirkleistungsmesser</t>
   </si>
   <si>
     <t>MDT AKD-0410V.02 Dimmaktor 4-fach 4TE REG 1-10V mit RGBW</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>Jalosienen</t>
+  </si>
+  <si>
+    <t>Multischaltaktor Kanäle:</t>
+  </si>
+  <si>
+    <t>Dimmer Kanäle:</t>
+  </si>
+  <si>
+    <t>Platzbedarf</t>
+  </si>
+  <si>
+    <t>Gesamtkosten:</t>
+  </si>
+  <si>
+    <t>Anzahl KNX-Knoten:</t>
+  </si>
+  <si>
+    <t>Platzbedarf im Schaltschrank:</t>
+  </si>
+  <si>
+    <t>Raum</t>
+  </si>
+  <si>
+    <t>Kanäle pro Gerät</t>
+  </si>
+  <si>
+    <t>Kanäle gesamt</t>
   </si>
 </sst>
 </file>
@@ -248,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -267,19 +291,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -294,10 +379,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -305,7 +407,183 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9696"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9696"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9696"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -326,29 +604,67 @@
       <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FFC00000"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9696"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9696"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -383,6 +699,13 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFF9696"/>
+      <color rgb="FFFF5E4A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -395,8 +718,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FFD03A8-96BD-4E09-BF02-3DEFE14EA902}" name="Tabelle1" displayName="Tabelle1" ref="A4:Q17" totalsRowCount="1" headerRowDxfId="6">
-  <autoFilter ref="A4:Q16" xr:uid="{96AC54A7-3AF8-4232-A7CA-7456C1206A29}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FFD03A8-96BD-4E09-BF02-3DEFE14EA902}" name="Tabelle1" displayName="Tabelle1" ref="A4:S17" totalsRowCount="1" headerRowDxfId="38">
+  <autoFilter ref="A4:S16" xr:uid="{96AC54A7-3AF8-4232-A7CA-7456C1206A29}">
     <filterColumn colId="0">
       <filters>
         <filter val="4-fach Taster"/>
@@ -411,30 +734,36 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:Q16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:S16">
     <sortCondition ref="A4:A16"/>
   </sortState>
-  <tableColumns count="17">
+  <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{F5042A58-498A-4C97-BACF-B3C8328DBC5F}" name="Bezeichnung"/>
-    <tableColumn id="18" xr3:uid="{EBD698E9-BE7C-4EEA-BF83-B807A3FE3703}" name="Anzahl Kanäle"/>
-    <tableColumn id="7" xr3:uid="{0CA81A17-BA15-4983-A8A2-0242A8B6B19B}" name="Herstellernummer" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{A7425F57-1716-41F9-9380-535B4BFD75F6}" name="Datenblatt"/>
+    <tableColumn id="18" xr3:uid="{EBD698E9-BE7C-4EEA-BF83-B807A3FE3703}" name="Kanäle pro Gerät"/>
+    <tableColumn id="20" xr3:uid="{48770584-C7A0-4EFF-A5AB-7C1C84E8310E}" name="Kanäle gesamt" dataDxfId="18">
+      <calculatedColumnFormula>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{FAF1D32A-393A-44C7-BE68-7B040F6D94CE}" name="TE"/>
+    <tableColumn id="19" xr3:uid="{D57E5FC7-9060-4F5D-BEF2-3E71373B4491}" name="Platzbedarf" dataDxfId="32">
+      <calculatedColumnFormula>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{0CA81A17-BA15-4983-A8A2-0242A8B6B19B}" name="Herstellernummer" dataDxfId="31"/>
     <tableColumn id="4" xr3:uid="{4718EDFC-681A-42DA-B15F-DB810E8C969C}" name="Preis" dataCellStyle="Währung"/>
     <tableColumn id="5" xr3:uid="{A4E90C18-896F-4852-8F34-1136052F1D04}" name="Kategorie"/>
-    <tableColumn id="2" xr3:uid="{6085A278-C5F2-4B9B-81ED-75AC44992D6A}" name="Küche"/>
-    <tableColumn id="9" xr3:uid="{71B99BB4-E121-4AC6-B2CC-B8283468FBBB}" name="Esszimmer"/>
-    <tableColumn id="10" xr3:uid="{E4662B22-8FAD-414C-AAE6-B24E2CAB28D4}" name="Wohnzimmer"/>
-    <tableColumn id="11" xr3:uid="{204170EB-6A51-4091-9F43-2BB5DD265154}" name="Speis"/>
-    <tableColumn id="12" xr3:uid="{18FF780B-8CBB-488D-B52A-5E6374864CB2}" name="Bad"/>
-    <tableColumn id="13" xr3:uid="{57EE2B1E-BB13-46B9-B6BC-CF4F5FCCDB66}" name="Gang"/>
-    <tableColumn id="14" xr3:uid="{E92F9A3C-E1C5-4882-916E-DA389241E99B}" name="Schalafzimmer"/>
-    <tableColumn id="15" xr3:uid="{3799BA4D-FAD2-475F-B312-0E659992795D}" name="Klo"/>
+    <tableColumn id="2" xr3:uid="{6085A278-C5F2-4B9B-81ED-75AC44992D6A}" name="Küche" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{71B99BB4-E121-4AC6-B2CC-B8283468FBBB}" name="Esszimmer" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{E4662B22-8FAD-414C-AAE6-B24E2CAB28D4}" name="Wohnzimmer" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{204170EB-6A51-4091-9F43-2BB5DD265154}" name="Speis" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{18FF780B-8CBB-488D-B52A-5E6374864CB2}" name="Bad" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{57EE2B1E-BB13-46B9-B6BC-CF4F5FCCDB66}" name="Gang" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{E92F9A3C-E1C5-4882-916E-DA389241E99B}" name="Schalafzimmer" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{3799BA4D-FAD2-475F-B312-0E659992795D}" name="Klo" dataDxfId="23"/>
     <tableColumn id="17" xr3:uid="{17A122D9-4F1D-40D7-A3F8-16439D99B479}" name="KNX-fähig"/>
-    <tableColumn id="6" xr3:uid="{12170A0C-6A62-4A83-B4B9-2C3B5CC64F58}" name="Menge KNX-Geräte" totalsRowFunction="sum" dataDxfId="2">
-      <calculatedColumnFormula>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{12170A0C-6A62-4A83-B4B9-2C3B5CC64F58}" name="Menge KNX-Geräte" dataDxfId="22">
+      <calculatedColumnFormula>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E30A86F8-AD60-4262-90C1-41270FEC02A0}" name="Endpreis" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Währung">
-      <calculatedColumnFormula>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{E30A86F8-AD60-4262-90C1-41270FEC02A0}" name="Endpreis" dataDxfId="21" dataCellStyle="Währung">
+      <calculatedColumnFormula>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -442,10 +771,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AAEA202F-2E12-4951-852F-9E886146E92D}" name="Tabelle2" displayName="Tabelle2" ref="A2:J5" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A2:J5" xr:uid="{64997CFE-B058-4B80-8521-0376DB419888}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AAEA202F-2E12-4951-852F-9E886146E92D}" name="Tabelle2" displayName="Tabelle2" ref="A2:J6" totalsRowShown="0" headerRowDxfId="37">
+  <autoFilter ref="A2:J6" xr:uid="{64997CFE-B058-4B80-8521-0376DB419888}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{A1D940C5-2DB8-4D38-B7EB-A7046EC82315}" name="Spalte1"/>
+    <tableColumn id="1" xr3:uid="{A1D940C5-2DB8-4D38-B7EB-A7046EC82315}" name="Raum"/>
     <tableColumn id="2" xr3:uid="{DDF37692-0B97-4EFA-A254-501428F98AC7}" name="Küche"/>
     <tableColumn id="3" xr3:uid="{0CC211E9-3E8B-4225-8060-D732679A1D25}" name="Esszimmer"/>
     <tableColumn id="4" xr3:uid="{B0776194-2185-4A16-BB15-3EBC5FD9646A}" name="Wohnzimmer"/>
@@ -454,7 +783,7 @@
     <tableColumn id="7" xr3:uid="{07E1B0C6-C411-4574-8D01-297094ADFF8E}" name="Gang"/>
     <tableColumn id="8" xr3:uid="{523F6610-FD02-45F2-B727-E43C97AB7701}" name="Schalafzimmer"/>
     <tableColumn id="9" xr3:uid="{439EBBEB-C21F-4366-B359-B750404A6C1C}" name="Klo"/>
-    <tableColumn id="10" xr3:uid="{3550BC49-49F6-41E8-A343-46EDD7312783}" name="Summe" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{3550BC49-49F6-41E8-A343-46EDD7312783}" name="Summe" dataDxfId="36">
       <calculatedColumnFormula>SUM(Tabelle2[[#This Row],[Küche]:[Klo]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -760,26 +1089,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398A786F-74ED-4B47-9A9F-B84A1C0EAFA8}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="6" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="5" width="5.28515625" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="6" max="6" width="71.85546875" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="6" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -799,8 +1130,10 @@
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -818,484 +1151,769 @@
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
-    </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" ht="73.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+    </row>
+    <row r="4" spans="1:19" s="3" customFormat="1" ht="83.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="P4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="Q4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5">
+        <f>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1">
         <v>54.21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="M5">
+      <c r="I5" s="12">
+        <v>1</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12">
+        <v>1</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12">
         <v>2</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
-        <v>2</v>
-      </c>
-      <c r="Q5" s="1">
-        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
-        <v>108.42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="12"/>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>4</v>
+      </c>
+      <c r="S5" s="1">
+        <f>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+        <v>216.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C6">
+        <f>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1">
         <v>51.16</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12">
+        <v>1</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <f>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
         <v>51.16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7">
+        <f>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <v>249.69</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>16</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1">
-        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12">
+        <v>1</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <f>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
         <v>249.69</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="C8">
+        <f>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1">
         <v>140.07</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>16</v>
       </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1">
-        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12">
+        <v>1</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <f>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
         <v>140.07</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9">
+        <f>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <v>143.21</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1">
-        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12">
+        <v>1</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <f>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
         <v>143.21</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10">
+        <f>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <v>137.63</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12">
+        <v>1</v>
+      </c>
+      <c r="K10" s="12">
+        <v>1</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12">
+        <v>1</v>
+      </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12">
+        <v>1</v>
+      </c>
+      <c r="P10" s="12"/>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
         <v>4</v>
       </c>
-      <c r="Q10" s="1">
-        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+      <c r="S10" s="1">
+        <f>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
         <v>550.52</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11">
+        <f>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1">
+      <c r="G11" s="1">
         <v>121.2</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>15</v>
       </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q11" s="1">
-        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12">
+        <v>1</v>
+      </c>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <f>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
         <v>121.2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12">
+        <f>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="1">
+      <c r="G12" s="1">
         <v>26.27</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>15</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="O12">
+      <c r="I12" s="12"/>
+      <c r="J12" s="12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12">
+        <v>1</v>
+      </c>
+      <c r="N12" s="12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="12">
+        <v>1</v>
+      </c>
+      <c r="P12" s="12"/>
+      <c r="Q12">
         <v>0</v>
       </c>
-      <c r="P12">
-        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+      <c r="R12">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="1">
-        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+      <c r="S12" s="1">
+        <f>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
         <v>131.35</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13">
+        <f>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="1">
+      <c r="G13" s="1">
         <v>216.2</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>12</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q13" s="1">
-        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12">
+        <v>1</v>
+      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <f>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
         <v>216.2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>24</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="C14">
+        <f>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>12</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="1">
         <v>336.17</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>13</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1">
-        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12">
+        <v>1</v>
+      </c>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
+        <f>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
         <v>336.17</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15">
+        <f>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="1">
+      <c r="G15" s="1">
         <v>149.81</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>13</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q15" s="1">
-        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12">
+        <v>1</v>
+      </c>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
+        <f>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
         <v>149.81</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>16</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="C16">
+        <f>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>8</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="1">
         <v>237.51</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>13</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q16" s="1">
-        <f>COUNTA(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12">
+        <v>1</v>
+      </c>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <f>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
         <v>237.51</v>
       </c>
     </row>
-    <row r="17" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P17">
+    <row r="17" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U17" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="V17" s="14">
+        <f>SUBTOTAL(109,Tabelle1[Endpreis])</f>
+        <v>1840.33</v>
+      </c>
+    </row>
+    <row r="18" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="V18" s="19">
         <f>SUBTOTAL(109,Tabelle1[Menge KNX-Geräte])</f>
-        <v>12</v>
-      </c>
-      <c r="Q17" s="3">
-        <f>SUBTOTAL(109,Tabelle1[Endpreis])</f>
-        <v>1731.9099999999999</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="21:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="V19" s="16">
+        <f>SUBTOTAL(109,Tabelle1[Platzbedarf])</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="V20" s="14">
+        <f>Schaltstellen!J3+Schaltstellen!J5+Schaltstellen!J6*2</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="21:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="V21" s="16">
+        <f>Schaltstellen!J4</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q2"/>
+    <mergeCell ref="A1:S2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="U18:V18">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="between">
+      <formula>21</formula>
+      <formula>10000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V20">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThanOrEqual">
+      <formula>$C$14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
+      <formula>$C$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V21">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThanOrEqual">
+      <formula>$C$8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+      <formula>$C$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V18">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThanOrEqual">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" tooltip="MDT JAL-0810.02 Jalousieaktor 8TE REG 10A 230VAC 8-fach" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/jalousieaktoren-o/mdt-jal-0810-02-jalousieaktor-8te-reg-10a-230vac-8-fach.html" xr:uid="{E5F4C422-F1FA-453E-A08A-9ECCDC6FCD6B}"/>
-    <hyperlink ref="C15" r:id="rId2" tooltip="MDT STV-0640.02 Busspannungsversorgung 4TE REG 640mA " display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/spannungsversorgung/mdt-stv-0640-02-busspannungsversorgung-4te-reg-640ma.html" xr:uid="{81F3E89C-8D36-489C-9F86-4596235CF013}"/>
-    <hyperlink ref="C9" r:id="rId3" tooltip="MDT SCN-IP000.03 IP Interface 2TE REG mit Email und Zeitserverfunktion " display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/linienkoppler-usb-ip-interface/mdt-scn-ip000-03-ip-interface-2te-reg-mit-email-und-zeitserverfunktion.html" xr:uid="{D41FC865-619D-4E1A-8832-E52C053C4D8B}"/>
-    <hyperlink ref="C10" r:id="rId4" tooltip="MDT BE-GT2TW.01 Glastaster II Smart mit 6 Sensorflächen Weiß" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/tastsensoren-o/mdt-be-gt2tw-01-glastaster-ii-smart-mit-6-sensorflaechen-weiss.html" xr:uid="{5E9101E6-79FC-40AB-B2F1-A4FA5363F5A9}"/>
-    <hyperlink ref="C11" r:id="rId5" tooltip="MDT AKH-0600.02 Heizungsaktor 3TE REG 24-230VAC 6-fach" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/heizungsaktoren/mdt-akh-0600-02-heizungsaktor-3te-reg-24-230vac-6-fach.html" xr:uid="{DC9A9F9B-849D-41AB-AE04-7B5B9F0DB6C9}"/>
-    <hyperlink ref="C7" r:id="rId6" tooltip="MDT AKD-0401.02 Dimmaktor 6TE REG 250W 230VAC mit Wirkleistungsmessung 4-fach" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/dimmaktoren/mdt-akd-0401-02-dimmaktor-6te-reg-250w-230vac-mit-wirkleistungsmessung-4-fach.html" xr:uid="{784BF359-713B-48A6-AECD-9924909651E5}"/>
-    <hyperlink ref="C12" r:id="rId7" display="https://www.voltus.de/?cl=details&amp;anid=dc7d3d94598bcca1b0cb6028bb0a05ee" xr:uid="{A682DA0F-3E44-499B-BB59-0919BCDE1553}"/>
+    <hyperlink ref="F13" r:id="rId1" tooltip="MDT JAL-0810.02 Jalousieaktor 8TE REG 10A 230VAC 8-fach" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/jalousieaktoren-o/mdt-jal-0810-02-jalousieaktor-8te-reg-10a-230vac-8-fach.html" xr:uid="{E5F4C422-F1FA-453E-A08A-9ECCDC6FCD6B}"/>
+    <hyperlink ref="F15" r:id="rId2" tooltip="MDT STV-0640.02 Busspannungsversorgung 4TE REG 640mA " display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/spannungsversorgung/mdt-stv-0640-02-busspannungsversorgung-4te-reg-640ma.html" xr:uid="{81F3E89C-8D36-489C-9F86-4596235CF013}"/>
+    <hyperlink ref="F9" r:id="rId3" tooltip="MDT SCN-IP000.03 IP Interface 2TE REG mit Email und Zeitserverfunktion " display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/linienkoppler-usb-ip-interface/mdt-scn-ip000-03-ip-interface-2te-reg-mit-email-und-zeitserverfunktion.html" xr:uid="{D41FC865-619D-4E1A-8832-E52C053C4D8B}"/>
+    <hyperlink ref="F10" r:id="rId4" tooltip="MDT BE-GT2TW.01 Glastaster II Smart mit 6 Sensorflächen Weiß" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/tastsensoren-o/mdt-be-gt2tw-01-glastaster-ii-smart-mit-6-sensorflaechen-weiss.html" xr:uid="{5E9101E6-79FC-40AB-B2F1-A4FA5363F5A9}"/>
+    <hyperlink ref="F11" r:id="rId5" tooltip="MDT AKH-0600.02 Heizungsaktor 3TE REG 24-230VAC 6-fach" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/heizungsaktoren/mdt-akh-0600-02-heizungsaktor-3te-reg-24-230vac-6-fach.html" xr:uid="{DC9A9F9B-849D-41AB-AE04-7B5B9F0DB6C9}"/>
+    <hyperlink ref="F7" r:id="rId6" tooltip="MDT AKD-0401.02 Dimmaktor 6TE REG 250W 230VAC mit Wirkleistungsmessung 4-fach" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/dimmaktoren/mdt-akd-0401-02-dimmaktor-6te-reg-250w-230vac-mit-wirkleistungsmessung-4-fach.html" xr:uid="{784BF359-713B-48A6-AECD-9924909651E5}"/>
+    <hyperlink ref="F12" r:id="rId7" display="https://www.voltus.de/?cl=details&amp;anid=dc7d3d94598bcca1b0cb6028bb0a05ee" xr:uid="{A682DA0F-3E44-499B-BB59-0919BCDE1553}"/>
+    <hyperlink ref="F16" r:id="rId8" xr:uid="{67C0BD22-D810-495F-95F5-ADC5830CA0E1}"/>
+    <hyperlink ref="F14" r:id="rId9" xr:uid="{F1963553-1BC3-4BB4-AEBB-7B63B658A6FF}"/>
+    <hyperlink ref="F8" r:id="rId10" xr:uid="{322D3756-C7FE-4DC0-8BB0-BD7F62E556B8}"/>
+    <hyperlink ref="F6" r:id="rId11" xr:uid="{8C7B5C84-AA0F-4B32-98B8-1F68910195E5}"/>
+    <hyperlink ref="F5" r:id="rId12" xr:uid="{5CBE72F8-1445-455B-A8F0-68D2CDCFEA5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1303,53 +1921,54 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6D519D-FE12-4271-8CB7-38306EB28B0C}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A2:J5"/>
+  <dimension ref="A2:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="73.5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>38</v>
+      <c r="J2" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1376,10 +1995,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1400,7 +2016,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1414,6 +2030,21 @@
       <c r="J5">
         <f>SUM(Tabelle2[[#This Row],[Küche]:[Klo]])</f>
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11">
+        <f>SUM(Tabelle2[[#This Row],[Küche]:[Klo]])</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Elektro/Auflistung_KNX_Material.xlsx
+++ b/Elektro/Auflistung_KNX_Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente_Thomas_Brandl\GIT_Repository\Umbau\Elektro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE59AFA-0C7F-4AD8-8D04-E7477F13C75D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9030DDE-7E12-41EC-BE6D-0B0A26472FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6F8353D-0510-4489-8C99-156F73AB2641}"/>
   </bookViews>
@@ -195,9 +195,6 @@
     <t>Platzbedarf</t>
   </si>
   <si>
-    <t>Gesamtkosten:</t>
-  </si>
-  <si>
     <t>Anzahl KNX-Knoten:</t>
   </si>
   <si>
@@ -211,14 +208,18 @@
   </si>
   <si>
     <t>Kanäle gesamt</t>
+  </si>
+  <si>
+    <t>Hof</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0\ &quot;von 20&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -272,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -335,24 +336,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -381,9 +364,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -396,194 +376,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9696"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9696"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9696"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <font>
         <b val="0"/>
@@ -604,37 +413,23 @@
       <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -647,12 +442,26 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFC00000"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF9696"/>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -695,6 +504,42 @@
       <alignment horizontal="left" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -718,7 +563,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FFD03A8-96BD-4E09-BF02-3DEFE14EA902}" name="Tabelle1" displayName="Tabelle1" ref="A4:S17" totalsRowCount="1" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FFD03A8-96BD-4E09-BF02-3DEFE14EA902}" name="Tabelle1" displayName="Tabelle1" ref="A4:S17" totalsRowCount="1" headerRowDxfId="22">
   <autoFilter ref="A4:S16" xr:uid="{96AC54A7-3AF8-4232-A7CA-7456C1206A29}">
     <filterColumn colId="0">
       <filters>
@@ -740,29 +585,29 @@
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{F5042A58-498A-4C97-BACF-B3C8328DBC5F}" name="Bezeichnung"/>
     <tableColumn id="18" xr3:uid="{EBD698E9-BE7C-4EEA-BF83-B807A3FE3703}" name="Kanäle pro Gerät"/>
-    <tableColumn id="20" xr3:uid="{48770584-C7A0-4EFF-A5AB-7C1C84E8310E}" name="Kanäle gesamt" dataDxfId="18">
+    <tableColumn id="20" xr3:uid="{48770584-C7A0-4EFF-A5AB-7C1C84E8310E}" name="Kanäle gesamt" dataDxfId="21">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{FAF1D32A-393A-44C7-BE68-7B040F6D94CE}" name="TE"/>
-    <tableColumn id="19" xr3:uid="{D57E5FC7-9060-4F5D-BEF2-3E71373B4491}" name="Platzbedarf" dataDxfId="32">
+    <tableColumn id="19" xr3:uid="{D57E5FC7-9060-4F5D-BEF2-3E71373B4491}" name="Platzbedarf" dataDxfId="20">
       <calculatedColumnFormula>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0CA81A17-BA15-4983-A8A2-0242A8B6B19B}" name="Herstellernummer" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{0CA81A17-BA15-4983-A8A2-0242A8B6B19B}" name="Herstellernummer" dataDxfId="19"/>
     <tableColumn id="4" xr3:uid="{4718EDFC-681A-42DA-B15F-DB810E8C969C}" name="Preis" dataCellStyle="Währung"/>
     <tableColumn id="5" xr3:uid="{A4E90C18-896F-4852-8F34-1136052F1D04}" name="Kategorie"/>
-    <tableColumn id="2" xr3:uid="{6085A278-C5F2-4B9B-81ED-75AC44992D6A}" name="Küche" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{71B99BB4-E121-4AC6-B2CC-B8283468FBBB}" name="Esszimmer" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{E4662B22-8FAD-414C-AAE6-B24E2CAB28D4}" name="Wohnzimmer" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{204170EB-6A51-4091-9F43-2BB5DD265154}" name="Speis" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{18FF780B-8CBB-488D-B52A-5E6374864CB2}" name="Bad" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{57EE2B1E-BB13-46B9-B6BC-CF4F5FCCDB66}" name="Gang" dataDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{E92F9A3C-E1C5-4882-916E-DA389241E99B}" name="Schalafzimmer" dataDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{3799BA4D-FAD2-475F-B312-0E659992795D}" name="Klo" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{6085A278-C5F2-4B9B-81ED-75AC44992D6A}" name="Küche" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{71B99BB4-E121-4AC6-B2CC-B8283468FBBB}" name="Esszimmer" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{E4662B22-8FAD-414C-AAE6-B24E2CAB28D4}" name="Wohnzimmer" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{204170EB-6A51-4091-9F43-2BB5DD265154}" name="Speis" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{18FF780B-8CBB-488D-B52A-5E6374864CB2}" name="Bad" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{57EE2B1E-BB13-46B9-B6BC-CF4F5FCCDB66}" name="Gang" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{E92F9A3C-E1C5-4882-916E-DA389241E99B}" name="Schalafzimmer" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{3799BA4D-FAD2-475F-B312-0E659992795D}" name="Klo" dataDxfId="11"/>
     <tableColumn id="17" xr3:uid="{17A122D9-4F1D-40D7-A3F8-16439D99B479}" name="KNX-fähig"/>
-    <tableColumn id="6" xr3:uid="{12170A0C-6A62-4A83-B4B9-2C3B5CC64F58}" name="Menge KNX-Geräte" dataDxfId="22">
+    <tableColumn id="6" xr3:uid="{12170A0C-6A62-4A83-B4B9-2C3B5CC64F58}" name="Menge KNX-Geräte" dataDxfId="10">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E30A86F8-AD60-4262-90C1-41270FEC02A0}" name="Endpreis" dataDxfId="21" dataCellStyle="Währung">
+    <tableColumn id="8" xr3:uid="{E30A86F8-AD60-4262-90C1-41270FEC02A0}" name="Endpreis" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="Währung">
       <calculatedColumnFormula>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -771,9 +616,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AAEA202F-2E12-4951-852F-9E886146E92D}" name="Tabelle2" displayName="Tabelle2" ref="A2:J6" totalsRowShown="0" headerRowDxfId="37">
-  <autoFilter ref="A2:J6" xr:uid="{64997CFE-B058-4B80-8521-0376DB419888}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AAEA202F-2E12-4951-852F-9E886146E92D}" name="Tabelle2" displayName="Tabelle2" ref="A2:K6" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A2:K6" xr:uid="{64997CFE-B058-4B80-8521-0376DB419888}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{A1D940C5-2DB8-4D38-B7EB-A7046EC82315}" name="Raum"/>
     <tableColumn id="2" xr3:uid="{DDF37692-0B97-4EFA-A254-501428F98AC7}" name="Küche"/>
     <tableColumn id="3" xr3:uid="{0CC211E9-3E8B-4225-8060-D732679A1D25}" name="Esszimmer"/>
@@ -783,8 +628,9 @@
     <tableColumn id="7" xr3:uid="{07E1B0C6-C411-4574-8D01-297094ADFF8E}" name="Gang"/>
     <tableColumn id="8" xr3:uid="{523F6610-FD02-45F2-B727-E43C97AB7701}" name="Schalafzimmer"/>
     <tableColumn id="9" xr3:uid="{439EBBEB-C21F-4366-B359-B750404A6C1C}" name="Klo"/>
-    <tableColumn id="10" xr3:uid="{3550BC49-49F6-41E8-A343-46EDD7312783}" name="Summe" dataDxfId="36">
-      <calculatedColumnFormula>SUM(Tabelle2[[#This Row],[Küche]:[Klo]])</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{21D0A73C-1259-4B5E-9160-E7893ABAD12E}" name="Hof"/>
+    <tableColumn id="10" xr3:uid="{3550BC49-49F6-41E8-A343-46EDD7312783}" name="Summe" dataDxfId="8">
+      <calculatedColumnFormula>SUM(Tabelle2[[#This Row],[Küche]:[Hof]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1092,82 +938,83 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="3" width="6" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="4" max="5" width="5.28515625" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="6" max="6" width="71.85546875" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="17" width="6" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16" width="6" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="6" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-    </row>
-    <row r="4" spans="1:19" s="3" customFormat="1" ht="83.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+    </row>
+    <row r="4" spans="1:19" s="3" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>58</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -1240,20 +1087,20 @@
       <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="12">
-        <v>1</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12">
-        <v>1</v>
-      </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12">
+      <c r="I5" s="11">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11">
         <v>2</v>
       </c>
-      <c r="P5" s="12"/>
+      <c r="P5" s="11"/>
       <c r="Q5">
         <v>1</v>
       </c>
@@ -1293,16 +1140,16 @@
       <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12">
-        <v>1</v>
-      </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11">
+        <v>1</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
       <c r="Q6">
         <v>1</v>
       </c>
@@ -1342,16 +1189,16 @@
       <c r="H7" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12">
-        <v>1</v>
-      </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11">
+        <v>1</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
       <c r="Q7">
         <v>1</v>
       </c>
@@ -1391,16 +1238,16 @@
       <c r="H8" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12">
-        <v>1</v>
-      </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11">
+        <v>1</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
       <c r="Q8">
         <v>1</v>
       </c>
@@ -1440,16 +1287,16 @@
       <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12">
-        <v>1</v>
-      </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11">
+        <v>1</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
       <c r="Q9">
         <v>1</v>
       </c>
@@ -1489,22 +1336,22 @@
       <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12">
-        <v>1</v>
-      </c>
-      <c r="K10" s="12">
-        <v>1</v>
-      </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12">
-        <v>1</v>
-      </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12">
-        <v>1</v>
-      </c>
-      <c r="P10" s="12"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11">
+        <v>1</v>
+      </c>
+      <c r="K10" s="11">
+        <v>1</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11">
+        <v>1</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11">
+        <v>1</v>
+      </c>
+      <c r="P10" s="11"/>
       <c r="Q10">
         <v>1</v>
       </c>
@@ -1544,16 +1391,16 @@
       <c r="H11" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12">
-        <v>1</v>
-      </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
       <c r="Q11">
         <v>1</v>
       </c>
@@ -1593,24 +1440,24 @@
       <c r="H12" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="12">
-        <v>1</v>
-      </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12">
-        <v>1</v>
-      </c>
-      <c r="N12" s="12">
-        <v>1</v>
-      </c>
-      <c r="O12" s="12">
-        <v>1</v>
-      </c>
-      <c r="P12" s="12"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11">
+        <v>1</v>
+      </c>
+      <c r="K12" s="11">
+        <v>1</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11">
+        <v>1</v>
+      </c>
+      <c r="N12" s="11">
+        <v>1</v>
+      </c>
+      <c r="O12" s="11">
+        <v>1</v>
+      </c>
+      <c r="P12" s="11"/>
       <c r="Q12">
         <v>0</v>
       </c>
@@ -1650,16 +1497,16 @@
       <c r="H13" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12">
-        <v>1</v>
-      </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11">
+        <v>1</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
       <c r="Q13">
         <v>1</v>
       </c>
@@ -1690,7 +1537,7 @@
         <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
         <v>12</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G14" s="1">
@@ -1699,16 +1546,16 @@
       <c r="H14" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12">
-        <v>1</v>
-      </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11">
+        <v>1</v>
+      </c>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
       <c r="Q14">
         <v>1</v>
       </c>
@@ -1721,7 +1568,7 @@
         <v>336.17</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1748,16 +1595,16 @@
       <c r="H15" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12">
-        <v>1</v>
-      </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11">
+        <v>1</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
       <c r="Q15">
         <v>1</v>
       </c>
@@ -1797,16 +1644,16 @@
       <c r="H16" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12">
-        <v>1</v>
-      </c>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11">
+        <v>1</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
       <c r="Q16">
         <v>1</v>
       </c>
@@ -1819,48 +1666,45 @@
         <v>237.51</v>
       </c>
     </row>
-    <row r="17" spans="21:22" x14ac:dyDescent="0.25">
-      <c r="U17" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="V17" s="14">
+    <row r="17" spans="19:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S17">
         <f>SUBTOTAL(109,Tabelle1[Endpreis])</f>
         <v>1840.33</v>
       </c>
     </row>
-    <row r="18" spans="21:22" x14ac:dyDescent="0.25">
-      <c r="U18" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="V18" s="19">
+    <row r="18" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="U18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="V18" s="20">
         <f>SUBTOTAL(109,Tabelle1[Menge KNX-Geräte])</f>
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="21:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U19" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="V19" s="16">
+    <row r="19" spans="19:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U19" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="V19" s="15">
         <f>SUBTOTAL(109,Tabelle1[Platzbedarf])</f>
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="21:22" x14ac:dyDescent="0.25">
-      <c r="U20" s="13" t="s">
+    <row r="20" spans="19:22" x14ac:dyDescent="0.25">
+      <c r="U20" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="V20" s="14">
-        <f>Schaltstellen!J3+Schaltstellen!J5+Schaltstellen!J6*2</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="21:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U21" s="15" t="s">
+      <c r="V20" s="13">
+        <f>Schaltstellen!K3+Schaltstellen!K5+Schaltstellen!K6*2</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="19:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U21" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V21" s="16">
-        <f>Schaltstellen!J4</f>
+      <c r="V21" s="15">
+        <f>Schaltstellen!K4</f>
         <v>4</v>
       </c>
     </row>
@@ -1870,29 +1714,29 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="U18:V18">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="between">
       <formula>21</formula>
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThanOrEqual">
       <formula>$C$14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>$C$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V18">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThanOrEqual">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1921,22 +1765,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6D519D-FE12-4271-8CB7-38306EB28B0C}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A2:J6"/>
+  <dimension ref="A2:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="73.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>56</v>
+    <row r="2" spans="1:11" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>24</v>
@@ -1962,11 +1808,14 @@
       <c r="I2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1989,11 +1838,14 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <f>SUM(Tabelle2[[#This Row],[Küche]:[Klo]])</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f>SUM(Tabelle2[[#This Row],[Küche]:[Hof]])</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2009,12 +1861,12 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <f>SUM(Tabelle2[[#This Row],[Küche]:[Klo]])</f>
+      <c r="K4">
+        <f>SUM(Tabelle2[[#This Row],[Küche]:[Hof]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2027,24 +1879,33 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <f>SUM(Tabelle2[[#This Row],[Küche]:[Klo]])</f>
+      <c r="K5">
+        <f>SUM(Tabelle2[[#This Row],[Küche]:[Hof]])</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11">
-        <f>SUM(Tabelle2[[#This Row],[Küche]:[Klo]])</f>
-        <v>2</v>
+      <c r="K6" s="10">
+        <f>SUM(Tabelle2[[#This Row],[Küche]:[Hof]])</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Elektro/Auflistung_KNX_Material.xlsx
+++ b/Elektro/Auflistung_KNX_Material.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente_Thomas_Brandl\GIT_Repository\Umbau\Elektro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9030DDE-7E12-41EC-BE6D-0B0A26472FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06457FD7-CF1D-448C-A371-E5964BC58C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6F8353D-0510-4489-8C99-156F73AB2641}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A6F8353D-0510-4489-8C99-156F73AB2641}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
     <sheet name="Schaltstellen" sheetId="2" r:id="rId2"/>
+    <sheet name="Kosten" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
   <si>
     <t>KNX-Elektroinstallation</t>
   </si>
@@ -211,15 +212,64 @@
   </si>
   <si>
     <t>Hof</t>
+  </si>
+  <si>
+    <t>Fingerprint KNX Interface</t>
+  </si>
+  <si>
+    <t>EKEY 101 719 home converter KNX RS-485</t>
+  </si>
+  <si>
+    <t>Tür</t>
+  </si>
+  <si>
+    <t>Fingerprint Steuereinheit</t>
+  </si>
+  <si>
+    <t>EKEY 101 163 multi SE REG 4 Steuereinheit Fingeranzahl 99 weiß</t>
+  </si>
+  <si>
+    <t>Fingersensor</t>
+  </si>
+  <si>
+    <t>EKEY 101 148 home FS UP E Fingerscanner 99 Fingerprints ohne RFID</t>
+  </si>
+  <si>
+    <t>Händler</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Konto</t>
+  </si>
+  <si>
+    <t>Betrag</t>
+  </si>
+  <si>
+    <t>Temo-Elektro</t>
+  </si>
+  <si>
+    <t>Material für Elektrorohinstallation</t>
+  </si>
+  <si>
+    <t>Richard Brandl</t>
+  </si>
+  <si>
+    <t>elektro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0\ &quot;von 20&quot;"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -342,7 +392,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -379,50 +429,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+  <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <fill>
@@ -474,6 +506,18 @@
           <bgColor rgb="FFFF9696"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -504,6 +548,25 @@
       <alignment horizontal="left" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -532,9 +595,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -563,14 +623,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FFD03A8-96BD-4E09-BF02-3DEFE14EA902}" name="Tabelle1" displayName="Tabelle1" ref="A4:S17" totalsRowCount="1" headerRowDxfId="22">
-  <autoFilter ref="A4:S16" xr:uid="{96AC54A7-3AF8-4232-A7CA-7456C1206A29}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FFD03A8-96BD-4E09-BF02-3DEFE14EA902}" name="Tabelle1" displayName="Tabelle1" ref="A4:S20" totalsRowCount="1" headerRowDxfId="27">
+  <autoFilter ref="A4:S19" xr:uid="{96AC54A7-3AF8-4232-A7CA-7456C1206A29}">
     <filterColumn colId="0">
       <filters>
         <filter val="4-fach Taster"/>
         <filter val="Binäreingang"/>
         <filter val="Dimmaktor"/>
         <filter val="Ethernet Interface"/>
+        <filter val="Fingerprint KNX Interface"/>
+        <filter val="Fingerprint Steuereinheit"/>
+        <filter val="Fingersensor"/>
         <filter val="Glastaster"/>
         <filter val="Heizungsaktor"/>
         <filter val="Heizungsstelltrieb"/>
@@ -579,35 +642,35 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:S16">
-    <sortCondition ref="A4:A16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:S19">
+    <sortCondition ref="A4:A19"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{F5042A58-498A-4C97-BACF-B3C8328DBC5F}" name="Bezeichnung"/>
     <tableColumn id="18" xr3:uid="{EBD698E9-BE7C-4EEA-BF83-B807A3FE3703}" name="Kanäle pro Gerät"/>
-    <tableColumn id="20" xr3:uid="{48770584-C7A0-4EFF-A5AB-7C1C84E8310E}" name="Kanäle gesamt" dataDxfId="21">
+    <tableColumn id="20" xr3:uid="{48770584-C7A0-4EFF-A5AB-7C1C84E8310E}" name="Kanäle gesamt" dataDxfId="26">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{FAF1D32A-393A-44C7-BE68-7B040F6D94CE}" name="TE"/>
-    <tableColumn id="19" xr3:uid="{D57E5FC7-9060-4F5D-BEF2-3E71373B4491}" name="Platzbedarf" dataDxfId="20">
-      <calculatedColumnFormula>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</calculatedColumnFormula>
+    <tableColumn id="19" xr3:uid="{D57E5FC7-9060-4F5D-BEF2-3E71373B4491}" name="Platzbedarf" dataDxfId="0">
+      <calculatedColumnFormula>Tabelle1[[#This Row],[TE]]*SUM(Tabelle1[[#This Row],[Küche]:[Klo]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0CA81A17-BA15-4983-A8A2-0242A8B6B19B}" name="Herstellernummer" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{0CA81A17-BA15-4983-A8A2-0242A8B6B19B}" name="Herstellernummer" dataDxfId="25"/>
     <tableColumn id="4" xr3:uid="{4718EDFC-681A-42DA-B15F-DB810E8C969C}" name="Preis" dataCellStyle="Währung"/>
     <tableColumn id="5" xr3:uid="{A4E90C18-896F-4852-8F34-1136052F1D04}" name="Kategorie"/>
-    <tableColumn id="2" xr3:uid="{6085A278-C5F2-4B9B-81ED-75AC44992D6A}" name="Küche" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{71B99BB4-E121-4AC6-B2CC-B8283468FBBB}" name="Esszimmer" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{E4662B22-8FAD-414C-AAE6-B24E2CAB28D4}" name="Wohnzimmer" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{204170EB-6A51-4091-9F43-2BB5DD265154}" name="Speis" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{18FF780B-8CBB-488D-B52A-5E6374864CB2}" name="Bad" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{57EE2B1E-BB13-46B9-B6BC-CF4F5FCCDB66}" name="Gang" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{E92F9A3C-E1C5-4882-916E-DA389241E99B}" name="Schalafzimmer" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{3799BA4D-FAD2-475F-B312-0E659992795D}" name="Klo" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{6085A278-C5F2-4B9B-81ED-75AC44992D6A}" name="Küche" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{71B99BB4-E121-4AC6-B2CC-B8283468FBBB}" name="Esszimmer" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{E4662B22-8FAD-414C-AAE6-B24E2CAB28D4}" name="Wohnzimmer" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{204170EB-6A51-4091-9F43-2BB5DD265154}" name="Speis" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{18FF780B-8CBB-488D-B52A-5E6374864CB2}" name="Bad" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{57EE2B1E-BB13-46B9-B6BC-CF4F5FCCDB66}" name="Gang" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{E92F9A3C-E1C5-4882-916E-DA389241E99B}" name="Schalafzimmer" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{3799BA4D-FAD2-475F-B312-0E659992795D}" name="Klo" dataDxfId="17"/>
     <tableColumn id="17" xr3:uid="{17A122D9-4F1D-40D7-A3F8-16439D99B479}" name="KNX-fähig"/>
-    <tableColumn id="6" xr3:uid="{12170A0C-6A62-4A83-B4B9-2C3B5CC64F58}" name="Menge KNX-Geräte" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{12170A0C-6A62-4A83-B4B9-2C3B5CC64F58}" name="Menge KNX-Geräte" dataDxfId="16">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E30A86F8-AD60-4262-90C1-41270FEC02A0}" name="Endpreis" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="Währung">
+    <tableColumn id="8" xr3:uid="{E30A86F8-AD60-4262-90C1-41270FEC02A0}" name="Endpreis" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="1" dataCellStyle="Währung">
       <calculatedColumnFormula>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -616,7 +679,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AAEA202F-2E12-4951-852F-9E886146E92D}" name="Tabelle2" displayName="Tabelle2" ref="A2:K6" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AAEA202F-2E12-4951-852F-9E886146E92D}" name="Tabelle2" displayName="Tabelle2" ref="A2:K6" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A2:K6" xr:uid="{64997CFE-B058-4B80-8521-0376DB419888}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{A1D940C5-2DB8-4D38-B7EB-A7046EC82315}" name="Raum"/>
@@ -629,11 +692,26 @@
     <tableColumn id="8" xr3:uid="{523F6610-FD02-45F2-B727-E43C97AB7701}" name="Schalafzimmer"/>
     <tableColumn id="9" xr3:uid="{439EBBEB-C21F-4366-B359-B750404A6C1C}" name="Klo"/>
     <tableColumn id="11" xr3:uid="{21D0A73C-1259-4B5E-9160-E7893ABAD12E}" name="Hof"/>
-    <tableColumn id="10" xr3:uid="{3550BC49-49F6-41E8-A343-46EDD7312783}" name="Summe" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{3550BC49-49F6-41E8-A343-46EDD7312783}" name="Summe" dataDxfId="13">
       <calculatedColumnFormula>SUM(Tabelle2[[#This Row],[Küche]:[Hof]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9BB94BBB-F518-4C7C-98BC-BC0E1FBAE5DF}" name="Tabelle3" displayName="Tabelle3" ref="A1:F2" totalsRowShown="0">
+  <autoFilter ref="A1:F2" xr:uid="{2EE5AB28-B397-43CB-900D-A5B522ECDF9C}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{4DA6D9DF-2A14-4891-9CC3-08E42535F812}" name="Datum"/>
+    <tableColumn id="2" xr3:uid="{A2802040-74DD-489D-83C4-558D72967D5F}" name="Händler" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{5EE9FC28-C66B-4A96-9BA9-8280EC2E6589}" name="Kategorie" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{BD741B7D-FC24-407C-91C4-67731AA078DF}" name="Beschreibung" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{A87B7F3E-D2EF-4CAF-A80F-6E407E6EC1B1}" name="Konto" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{82BE7E6D-F523-4932-9103-8E1EB61BB46A}" name="Betrag" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -935,22 +1013,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398A786F-74ED-4B47-9A9F-B84A1C0EAFA8}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="3" width="6" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="5" width="5.28515625" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="6" max="6" width="71.85546875" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="2" max="3" width="6" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="5" width="5.28515625" customWidth="1" outlineLevel="2"/>
+    <col min="6" max="6" width="71.85546875" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="16" width="6" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="6" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="26.7109375" bestFit="1" customWidth="1"/>
@@ -958,48 +1036,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
     </row>
     <row r="4" spans="1:19" s="3" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1075,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <f>Tabelle1[[#This Row],[TE]]*SUM(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
         <v>0</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -1128,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <f>Tabelle1[[#This Row],[TE]]*SUM(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1177,7 +1255,7 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <f>Tabelle1[[#This Row],[TE]]*SUM(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1226,7 +1304,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <f>Tabelle1[[#This Row],[TE]]*SUM(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1275,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <f>Tabelle1[[#This Row],[TE]]*SUM(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1311,85 +1389,79 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <f>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
-        <v>0</v>
+        <f>Tabelle1[[#This Row],[TE]]*SUM(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G10" s="1">
-        <v>137.63</v>
+        <v>413.23</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="I10" s="11"/>
-      <c r="J10" s="11">
-        <v>1</v>
-      </c>
-      <c r="K10" s="11">
-        <v>1</v>
-      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="11">
-        <v>1</v>
-      </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11">
-        <v>1</v>
-      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11">
+        <v>1</v>
+      </c>
+      <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10">
         <v>1</v>
       </c>
       <c r="R10">
         <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S10" s="1">
         <f>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
-        <v>550.52</v>
+        <v>413.23</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <f>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
-        <v>3</v>
+        <f>Tabelle1[[#This Row],[TE]]*SUM(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="G11" s="1">
-        <v>121.2</v>
+        <v>465.13</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -1402,20 +1474,20 @@
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
         <f>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
-        <v>121.2</v>
+        <v>465.13</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1428,46 +1500,35 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <f>Tabelle1[[#This Row],[TE]]*SUM(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="G12" s="1">
-        <v>26.27</v>
+        <v>403</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I12" s="11"/>
-      <c r="J12" s="11">
-        <v>1</v>
-      </c>
-      <c r="K12" s="11">
-        <v>1</v>
-      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="11">
-        <v>1</v>
-      </c>
+      <c r="M12" s="11"/>
       <c r="N12" s="11">
-        <v>1</v>
-      </c>
-      <c r="O12" s="11">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O12" s="11"/>
       <c r="P12" s="11"/>
-      <c r="Q12">
-        <v>0</v>
-      </c>
       <c r="R12">
         <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
         <v>0</v>
       </c>
       <c r="S12" s="1">
         <f>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
-        <v>131.35</v>
+        <v>806</v>
       </c>
     </row>
     <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -1485,7 +1546,7 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <f>Tabelle1[[#This Row],[TE]]*SUM(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
         <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1521,79 +1582,85 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <f>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
         <v>24</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
-        <v>12</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>43</v>
+        <f>Tabelle1[[#This Row],[TE]]*SUM(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G14" s="1">
-        <v>336.17</v>
+        <v>137.63</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="J14" s="11">
+        <v>1</v>
+      </c>
+      <c r="K14" s="11">
+        <v>1</v>
+      </c>
       <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11">
-        <v>1</v>
-      </c>
-      <c r="O14" s="11"/>
+      <c r="M14" s="11">
+        <v>1</v>
+      </c>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11">
+        <v>1</v>
+      </c>
       <c r="P14" s="11"/>
       <c r="Q14">
         <v>1</v>
       </c>
       <c r="R14">
         <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S14" s="1">
         <f>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
-        <v>336.17</v>
+        <v>550.52</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <f>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
-        <v>4</v>
+        <f>Tabelle1[[#This Row],[TE]]*SUM(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
+        <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" s="1">
-        <v>149.81</v>
+        <v>121.2</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -1614,10 +1681,10 @@
       </c>
       <c r="S15" s="1">
         <f>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
-        <v>149.81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1632,7 +1699,7 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <f>Tabelle1[[#This Row],[TE]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <f>Tabelle1[[#This Row],[TE]]*SUM(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
         <v>8</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1666,44 +1733,199 @@
         <v>237.51</v>
       </c>
     </row>
-    <row r="17" spans="19:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S17">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>Tabelle1[[#This Row],[TE]]*SUM(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="1">
+        <v>26.27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11">
+        <v>1</v>
+      </c>
+      <c r="K17" s="11">
+        <v>1</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11">
+        <v>1</v>
+      </c>
+      <c r="N17" s="11">
+        <v>1</v>
+      </c>
+      <c r="O17" s="11">
+        <v>1</v>
+      </c>
+      <c r="P17" s="11"/>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <f>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+        <v>131.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <f>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <f>Tabelle1[[#This Row],[TE]]*SUM(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
+        <v>12</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="1">
+        <v>336.17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11">
+        <v>1</v>
+      </c>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
+        <f>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+        <v>336.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</f>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f>Tabelle1[[#This Row],[TE]]*SUM(Tabelle1[[#This Row],[Küche]:[Klo]])</f>
+        <v>4</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1">
+        <v>149.81</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11">
+        <v>1</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <f>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="S19" s="1">
+        <f>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</f>
+        <v>149.81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S20" s="20">
         <f>SUBTOTAL(109,Tabelle1[Endpreis])</f>
-        <v>1840.33</v>
-      </c>
-    </row>
-    <row r="18" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="U18" s="12" t="s">
+        <v>3524.6899999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U21" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="V18" s="20">
+      <c r="V21" s="19">
         <f>SUBTOTAL(109,Tabelle1[Menge KNX-Geräte])</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="19:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U19" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U22" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="V19" s="15">
+      <c r="V22" s="15">
         <f>SUBTOTAL(109,Tabelle1[Platzbedarf])</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="U20" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U23" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="V20" s="13">
+      <c r="V23" s="13">
         <f>Schaltstellen!K3+Schaltstellen!K5+Schaltstellen!K6*2</f>
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="19:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U21" s="14" t="s">
+    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U24" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V21" s="15">
+      <c r="V24" s="15">
         <f>Schaltstellen!K4</f>
         <v>4</v>
       </c>
@@ -1713,43 +1935,43 @@
     <mergeCell ref="A1:S2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="U18:V18">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="between">
+  <conditionalFormatting sqref="U21:V21">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="between">
       <formula>21</formula>
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V20">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="V23">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThanOrEqual">
       <formula>$C$14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
       <formula>$C$14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V21">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="V24">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V18">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="V21">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThanOrEqual">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F13" r:id="rId1" tooltip="MDT JAL-0810.02 Jalousieaktor 8TE REG 10A 230VAC 8-fach" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/jalousieaktoren-o/mdt-jal-0810-02-jalousieaktor-8te-reg-10a-230vac-8-fach.html" xr:uid="{E5F4C422-F1FA-453E-A08A-9ECCDC6FCD6B}"/>
-    <hyperlink ref="F15" r:id="rId2" tooltip="MDT STV-0640.02 Busspannungsversorgung 4TE REG 640mA " display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/spannungsversorgung/mdt-stv-0640-02-busspannungsversorgung-4te-reg-640ma.html" xr:uid="{81F3E89C-8D36-489C-9F86-4596235CF013}"/>
+    <hyperlink ref="F19" r:id="rId2" tooltip="MDT STV-0640.02 Busspannungsversorgung 4TE REG 640mA " display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/spannungsversorgung/mdt-stv-0640-02-busspannungsversorgung-4te-reg-640ma.html" xr:uid="{81F3E89C-8D36-489C-9F86-4596235CF013}"/>
     <hyperlink ref="F9" r:id="rId3" tooltip="MDT SCN-IP000.03 IP Interface 2TE REG mit Email und Zeitserverfunktion " display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/linienkoppler-usb-ip-interface/mdt-scn-ip000-03-ip-interface-2te-reg-mit-email-und-zeitserverfunktion.html" xr:uid="{D41FC865-619D-4E1A-8832-E52C053C4D8B}"/>
-    <hyperlink ref="F10" r:id="rId4" tooltip="MDT BE-GT2TW.01 Glastaster II Smart mit 6 Sensorflächen Weiß" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/tastsensoren-o/mdt-be-gt2tw-01-glastaster-ii-smart-mit-6-sensorflaechen-weiss.html" xr:uid="{5E9101E6-79FC-40AB-B2F1-A4FA5363F5A9}"/>
-    <hyperlink ref="F11" r:id="rId5" tooltip="MDT AKH-0600.02 Heizungsaktor 3TE REG 24-230VAC 6-fach" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/heizungsaktoren/mdt-akh-0600-02-heizungsaktor-3te-reg-24-230vac-6-fach.html" xr:uid="{DC9A9F9B-849D-41AB-AE04-7B5B9F0DB6C9}"/>
+    <hyperlink ref="F14" r:id="rId4" tooltip="MDT BE-GT2TW.01 Glastaster II Smart mit 6 Sensorflächen Weiß" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/tastsensoren-o/mdt-be-gt2tw-01-glastaster-ii-smart-mit-6-sensorflaechen-weiss.html" xr:uid="{5E9101E6-79FC-40AB-B2F1-A4FA5363F5A9}"/>
+    <hyperlink ref="F15" r:id="rId5" tooltip="MDT AKH-0600.02 Heizungsaktor 3TE REG 24-230VAC 6-fach" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/heizungsaktoren/mdt-akh-0600-02-heizungsaktor-3te-reg-24-230vac-6-fach.html" xr:uid="{DC9A9F9B-849D-41AB-AE04-7B5B9F0DB6C9}"/>
     <hyperlink ref="F7" r:id="rId6" tooltip="MDT AKD-0401.02 Dimmaktor 6TE REG 250W 230VAC mit Wirkleistungsmessung 4-fach" display="https://www.voltus.de/hausautomation/knx-eib/nach-hersteller/mdt/dimmaktoren/mdt-akd-0401-02-dimmaktor-6te-reg-250w-230vac-mit-wirkleistungsmessung-4-fach.html" xr:uid="{784BF359-713B-48A6-AECD-9924909651E5}"/>
-    <hyperlink ref="F12" r:id="rId7" display="https://www.voltus.de/?cl=details&amp;anid=dc7d3d94598bcca1b0cb6028bb0a05ee" xr:uid="{A682DA0F-3E44-499B-BB59-0919BCDE1553}"/>
+    <hyperlink ref="F17" r:id="rId7" display="https://www.voltus.de/?cl=details&amp;anid=dc7d3d94598bcca1b0cb6028bb0a05ee" xr:uid="{A682DA0F-3E44-499B-BB59-0919BCDE1553}"/>
     <hyperlink ref="F16" r:id="rId8" xr:uid="{67C0BD22-D810-495F-95F5-ADC5830CA0E1}"/>
-    <hyperlink ref="F14" r:id="rId9" xr:uid="{F1963553-1BC3-4BB4-AEBB-7B63B658A6FF}"/>
+    <hyperlink ref="F18" r:id="rId9" xr:uid="{F1963553-1BC3-4BB4-AEBB-7B63B658A6FF}"/>
     <hyperlink ref="F8" r:id="rId10" xr:uid="{322D3756-C7FE-4DC0-8BB0-BD7F62E556B8}"/>
     <hyperlink ref="F6" r:id="rId11" xr:uid="{8C7B5C84-AA0F-4B32-98B8-1F68910195E5}"/>
     <hyperlink ref="F5" r:id="rId12" xr:uid="{5CBE72F8-1445-455B-A8F0-68D2CDCFEA5F}"/>
@@ -1768,7 +1990,7 @@
   <dimension ref="A2:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,7 +2030,7 @@
       <c r="I2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>58</v>
       </c>
       <c r="K2" s="6" t="s">
@@ -1820,7 +2042,7 @@
         <v>33</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1842,7 +2064,7 @@
       </c>
       <c r="K3">
         <f>SUM(Tabelle2[[#This Row],[Küche]:[Hof]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1870,9 +2092,6 @@
       <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
       <c r="C5">
         <v>1</v>
       </c>
@@ -1881,7 +2100,7 @@
       </c>
       <c r="K5">
         <f>SUM(Tabelle2[[#This Row],[Küche]:[Hof]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1906,6 +2125,72 @@
       <c r="K6" s="10">
         <f>SUM(Tabelle2[[#This Row],[Küche]:[Hof]])</f>
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDBC38B-CA97-415B-9D7B-EBA766BFF152}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>44168</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="23">
+        <v>296.82</v>
       </c>
     </row>
   </sheetData>

--- a/Elektro/Auflistung_KNX_Material.xlsx
+++ b/Elektro/Auflistung_KNX_Material.xlsx
@@ -5,17 +5,18 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente_Thomas_Brandl\GIT_Repository\Umbau\Elektro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tom\Documents\Umbau\Elektro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06457FD7-CF1D-448C-A371-E5964BC58C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C211CA73-9037-4891-9BFC-4009AE36C93A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A6F8353D-0510-4489-8C99-156F73AB2641}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A6F8353D-0510-4489-8C99-156F73AB2641}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
     <sheet name="Schaltstellen" sheetId="2" r:id="rId2"/>
     <sheet name="Kosten" sheetId="3" r:id="rId3"/>
+    <sheet name="Sicherungskasten" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="128">
   <si>
     <t>KNX-Elektroinstallation</t>
   </si>
@@ -260,6 +261,165 @@
   </si>
   <si>
     <t>elektro</t>
+  </si>
+  <si>
+    <t>Zimmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strang </t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>Lampe Decke</t>
+  </si>
+  <si>
+    <t>Lampe Wand</t>
+  </si>
+  <si>
+    <t>Steckdose Ost</t>
+  </si>
+  <si>
+    <t>Steckdose West</t>
+  </si>
+  <si>
+    <t>Steckdosen ungeschaltet</t>
+  </si>
+  <si>
+    <t>Sicherung</t>
+  </si>
+  <si>
+    <t>Lampe Esstisch</t>
+  </si>
+  <si>
+    <t>Deckenspots</t>
+  </si>
+  <si>
+    <t>Steckdose Fenster Süd</t>
+  </si>
+  <si>
+    <t>Steckdose Fenster Ost</t>
+  </si>
+  <si>
+    <t>Lampen Teke</t>
+  </si>
+  <si>
+    <t>Arbeitslicht Herd</t>
+  </si>
+  <si>
+    <t>Kühlschrank</t>
+  </si>
+  <si>
+    <t>Backofen</t>
+  </si>
+  <si>
+    <t>Geschirrspüler</t>
+  </si>
+  <si>
+    <t>Schlafzimmer</t>
+  </si>
+  <si>
+    <t>Herdplatte</t>
+  </si>
+  <si>
+    <t>Steckdosen Ost</t>
+  </si>
+  <si>
+    <t>Steckdosen West</t>
+  </si>
+  <si>
+    <t>Licht Spiegelschrank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waschmaschine </t>
+  </si>
+  <si>
+    <t>Trockner</t>
+  </si>
+  <si>
+    <t>Rollo</t>
+  </si>
+  <si>
+    <t>Rollo Süd</t>
+  </si>
+  <si>
+    <t>Rollo Ost</t>
+  </si>
+  <si>
+    <t>Steckdose Fenster</t>
+  </si>
+  <si>
+    <t>Licht und Steckdose</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8 - F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>Steckdose außen</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F24</t>
   </si>
 </sst>
 </file>
@@ -434,12 +594,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -447,15 +607,6 @@
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="28">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -508,10 +659,16 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -600,6 +757,9 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -652,25 +812,25 @@
       <calculatedColumnFormula>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{FAF1D32A-393A-44C7-BE68-7B040F6D94CE}" name="TE"/>
-    <tableColumn id="19" xr3:uid="{D57E5FC7-9060-4F5D-BEF2-3E71373B4491}" name="Platzbedarf" dataDxfId="0">
+    <tableColumn id="19" xr3:uid="{D57E5FC7-9060-4F5D-BEF2-3E71373B4491}" name="Platzbedarf" dataDxfId="25">
       <calculatedColumnFormula>Tabelle1[[#This Row],[TE]]*SUM(Tabelle1[[#This Row],[Küche]:[Klo]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0CA81A17-BA15-4983-A8A2-0242A8B6B19B}" name="Herstellernummer" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{0CA81A17-BA15-4983-A8A2-0242A8B6B19B}" name="Herstellernummer" dataDxfId="24"/>
     <tableColumn id="4" xr3:uid="{4718EDFC-681A-42DA-B15F-DB810E8C969C}" name="Preis" dataCellStyle="Währung"/>
     <tableColumn id="5" xr3:uid="{A4E90C18-896F-4852-8F34-1136052F1D04}" name="Kategorie"/>
-    <tableColumn id="2" xr3:uid="{6085A278-C5F2-4B9B-81ED-75AC44992D6A}" name="Küche" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{71B99BB4-E121-4AC6-B2CC-B8283468FBBB}" name="Esszimmer" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{E4662B22-8FAD-414C-AAE6-B24E2CAB28D4}" name="Wohnzimmer" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{204170EB-6A51-4091-9F43-2BB5DD265154}" name="Speis" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{18FF780B-8CBB-488D-B52A-5E6374864CB2}" name="Bad" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{57EE2B1E-BB13-46B9-B6BC-CF4F5FCCDB66}" name="Gang" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{E92F9A3C-E1C5-4882-916E-DA389241E99B}" name="Schalafzimmer" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{3799BA4D-FAD2-475F-B312-0E659992795D}" name="Klo" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{6085A278-C5F2-4B9B-81ED-75AC44992D6A}" name="Küche" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{71B99BB4-E121-4AC6-B2CC-B8283468FBBB}" name="Esszimmer" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{E4662B22-8FAD-414C-AAE6-B24E2CAB28D4}" name="Wohnzimmer" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{204170EB-6A51-4091-9F43-2BB5DD265154}" name="Speis" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{18FF780B-8CBB-488D-B52A-5E6374864CB2}" name="Bad" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{57EE2B1E-BB13-46B9-B6BC-CF4F5FCCDB66}" name="Gang" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{E92F9A3C-E1C5-4882-916E-DA389241E99B}" name="Schalafzimmer" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{3799BA4D-FAD2-475F-B312-0E659992795D}" name="Klo" dataDxfId="16"/>
     <tableColumn id="17" xr3:uid="{17A122D9-4F1D-40D7-A3F8-16439D99B479}" name="KNX-fähig"/>
-    <tableColumn id="6" xr3:uid="{12170A0C-6A62-4A83-B4B9-2C3B5CC64F58}" name="Menge KNX-Geräte" dataDxfId="16">
+    <tableColumn id="6" xr3:uid="{12170A0C-6A62-4A83-B4B9-2C3B5CC64F58}" name="Menge KNX-Geräte" dataDxfId="15">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E30A86F8-AD60-4262-90C1-41270FEC02A0}" name="Endpreis" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="1" dataCellStyle="Währung">
+    <tableColumn id="8" xr3:uid="{E30A86F8-AD60-4262-90C1-41270FEC02A0}" name="Endpreis" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="6" dataCellStyle="Währung">
       <calculatedColumnFormula>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -679,7 +839,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AAEA202F-2E12-4951-852F-9E886146E92D}" name="Tabelle2" displayName="Tabelle2" ref="A2:K6" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AAEA202F-2E12-4951-852F-9E886146E92D}" name="Tabelle2" displayName="Tabelle2" ref="A2:K6" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A2:K6" xr:uid="{64997CFE-B058-4B80-8521-0376DB419888}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{A1D940C5-2DB8-4D38-B7EB-A7046EC82315}" name="Raum"/>
@@ -692,7 +852,7 @@
     <tableColumn id="8" xr3:uid="{523F6610-FD02-45F2-B727-E43C97AB7701}" name="Schalafzimmer"/>
     <tableColumn id="9" xr3:uid="{439EBBEB-C21F-4366-B359-B750404A6C1C}" name="Klo"/>
     <tableColumn id="11" xr3:uid="{21D0A73C-1259-4B5E-9160-E7893ABAD12E}" name="Hof"/>
-    <tableColumn id="10" xr3:uid="{3550BC49-49F6-41E8-A343-46EDD7312783}" name="Summe" dataDxfId="13">
+    <tableColumn id="10" xr3:uid="{3550BC49-49F6-41E8-A343-46EDD7312783}" name="Summe" dataDxfId="12">
       <calculatedColumnFormula>SUM(Tabelle2[[#This Row],[Küche]:[Hof]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -705,13 +865,31 @@
   <autoFilter ref="A1:F2" xr:uid="{2EE5AB28-B397-43CB-900D-A5B522ECDF9C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4DA6D9DF-2A14-4891-9CC3-08E42535F812}" name="Datum"/>
-    <tableColumn id="2" xr3:uid="{A2802040-74DD-489D-83C4-558D72967D5F}" name="Händler" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{5EE9FC28-C66B-4A96-9BA9-8280EC2E6589}" name="Kategorie" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{BD741B7D-FC24-407C-91C4-67731AA078DF}" name="Beschreibung" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{A87B7F3E-D2EF-4CAF-A80F-6E407E6EC1B1}" name="Konto" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{82BE7E6D-F523-4932-9103-8E1EB61BB46A}" name="Betrag" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{A2802040-74DD-489D-83C4-558D72967D5F}" name="Händler" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{5EE9FC28-C66B-4A96-9BA9-8280EC2E6589}" name="Kategorie" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{BD741B7D-FC24-407C-91C4-67731AA078DF}" name="Beschreibung" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{A87B7F3E-D2EF-4CAF-A80F-6E407E6EC1B1}" name="Konto" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{82BE7E6D-F523-4932-9103-8E1EB61BB46A}" name="Betrag" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{74BF43CC-7DFC-423D-87B7-10526DF62A3D}" name="Tabelle4" displayName="Tabelle4" ref="A1:D37">
+  <autoFilter ref="A1:D37" xr:uid="{36A3D0F2-D2A8-412D-8050-B8309A43B4D9}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CC0AAF65-39DD-44E4-823C-5EE1EA9E89C0}" name="Zimmer" totalsRowLabel="Ergebnis"/>
+    <tableColumn id="2" xr3:uid="{37BA649C-CA11-40D6-ABE1-F4FCE195D1F1}" name="Strang "/>
+    <tableColumn id="4" xr3:uid="{675723C2-70A4-42EC-A721-FB986429A717}" name="Sicherung"/>
+    <tableColumn id="3" xr3:uid="{42C00CD3-2907-4B17-A31B-B5CB994662BC}" name="FI"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1015,71 +1193,71 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
     <col min="2" max="3" width="6" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="5" width="5.28515625" customWidth="1" outlineLevel="2"/>
-    <col min="6" max="6" width="71.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.33203125" customWidth="1" outlineLevel="2"/>
+    <col min="6" max="6" width="71.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="16" width="6" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-    </row>
-    <row r="4" spans="1:19" s="3" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+    </row>
+    <row r="4" spans="1:19" s="3" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1138,7 +1316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1191,7 +1369,7 @@
         <v>216.84</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1240,7 +1418,7 @@
         <v>51.16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1289,7 +1467,7 @@
         <v>249.69</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1338,7 +1516,7 @@
         <v>140.07</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1387,7 +1565,7 @@
         <v>143.21</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -1436,7 +1614,7 @@
         <v>413.23</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1485,7 +1663,7 @@
         <v>465.13</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -1531,7 +1709,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1580,7 +1758,7 @@
         <v>216.2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1635,7 +1813,7 @@
         <v>550.52</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1684,7 +1862,7 @@
         <v>121.2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1733,7 +1911,7 @@
         <v>237.51</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1790,7 +1968,7 @@
         <v>131.35</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1839,7 +2017,7 @@
         <v>336.17</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1888,13 +2066,13 @@
         <v>149.81</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="S20" s="20">
         <f>SUBTOTAL(109,Tabelle1[Endpreis])</f>
         <v>3524.6899999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="U21" s="12" t="s">
         <v>53</v>
       </c>
@@ -1903,7 +2081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="U22" s="14" t="s">
         <v>54</v>
       </c>
@@ -1912,22 +2090,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="U23" s="12" t="s">
         <v>50</v>
       </c>
       <c r="V23" s="13">
         <f>Schaltstellen!K3+Schaltstellen!K5+Schaltstellen!K6*2</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="U24" s="14" t="s">
         <v>51</v>
       </c>
       <c r="V24" s="15">
         <f>Schaltstellen!K4</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1936,29 +2114,29 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="U21:V21">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
       <formula>21</formula>
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThanOrEqual">
       <formula>$C$14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>$C$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1990,19 +2168,19 @@
   <dimension ref="A2:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="73.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>55</v>
       </c>
@@ -2037,7 +2215,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2057,17 +2235,17 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
         <f>SUM(Tabelle2[[#This Row],[Küche]:[Hof]])</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2080,15 +2258,12 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
       <c r="K4">
         <f>SUM(Tabelle2[[#This Row],[Küche]:[Hof]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2103,7 +2278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -2140,20 +2315,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -2173,24 +2348,370 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
         <v>44168</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="22">
         <v>296.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB6F161-F071-4988-9777-7297A2D0610F}">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Elektro/Auflistung_KNX_Material.xlsx
+++ b/Elektro/Auflistung_KNX_Material.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tom\Documents\Umbau\Elektro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente_Thomas_Brandl\GIT_Repository\Umbau\Elektro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C211CA73-9037-4891-9BFC-4009AE36C93A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C709B1-F28D-4A8F-A233-8F8EF1DEFFB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{A6F8353D-0510-4489-8C99-156F73AB2641}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6F8353D-0510-4489-8C99-156F73AB2641}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -608,57 +608,6 @@
   </cellStyles>
   <dxfs count="28">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9696"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -762,6 +711,57 @@
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9696"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -783,7 +783,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FFD03A8-96BD-4E09-BF02-3DEFE14EA902}" name="Tabelle1" displayName="Tabelle1" ref="A4:S20" totalsRowCount="1" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FFD03A8-96BD-4E09-BF02-3DEFE14EA902}" name="Tabelle1" displayName="Tabelle1" ref="A4:S20" totalsRowCount="1" headerRowDxfId="21">
   <autoFilter ref="A4:S19" xr:uid="{96AC54A7-3AF8-4232-A7CA-7456C1206A29}">
     <filterColumn colId="0">
       <filters>
@@ -808,29 +808,29 @@
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{F5042A58-498A-4C97-BACF-B3C8328DBC5F}" name="Bezeichnung"/>
     <tableColumn id="18" xr3:uid="{EBD698E9-BE7C-4EEA-BF83-B807A3FE3703}" name="Kanäle pro Gerät"/>
-    <tableColumn id="20" xr3:uid="{48770584-C7A0-4EFF-A5AB-7C1C84E8310E}" name="Kanäle gesamt" dataDxfId="26">
+    <tableColumn id="20" xr3:uid="{48770584-C7A0-4EFF-A5AB-7C1C84E8310E}" name="Kanäle gesamt" dataDxfId="20">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{FAF1D32A-393A-44C7-BE68-7B040F6D94CE}" name="TE"/>
-    <tableColumn id="19" xr3:uid="{D57E5FC7-9060-4F5D-BEF2-3E71373B4491}" name="Platzbedarf" dataDxfId="25">
+    <tableColumn id="19" xr3:uid="{D57E5FC7-9060-4F5D-BEF2-3E71373B4491}" name="Platzbedarf" dataDxfId="19">
       <calculatedColumnFormula>Tabelle1[[#This Row],[TE]]*SUM(Tabelle1[[#This Row],[Küche]:[Klo]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0CA81A17-BA15-4983-A8A2-0242A8B6B19B}" name="Herstellernummer" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{0CA81A17-BA15-4983-A8A2-0242A8B6B19B}" name="Herstellernummer" dataDxfId="18"/>
     <tableColumn id="4" xr3:uid="{4718EDFC-681A-42DA-B15F-DB810E8C969C}" name="Preis" dataCellStyle="Währung"/>
     <tableColumn id="5" xr3:uid="{A4E90C18-896F-4852-8F34-1136052F1D04}" name="Kategorie"/>
-    <tableColumn id="2" xr3:uid="{6085A278-C5F2-4B9B-81ED-75AC44992D6A}" name="Küche" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{71B99BB4-E121-4AC6-B2CC-B8283468FBBB}" name="Esszimmer" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{E4662B22-8FAD-414C-AAE6-B24E2CAB28D4}" name="Wohnzimmer" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{204170EB-6A51-4091-9F43-2BB5DD265154}" name="Speis" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{18FF780B-8CBB-488D-B52A-5E6374864CB2}" name="Bad" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{57EE2B1E-BB13-46B9-B6BC-CF4F5FCCDB66}" name="Gang" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{E92F9A3C-E1C5-4882-916E-DA389241E99B}" name="Schalafzimmer" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{3799BA4D-FAD2-475F-B312-0E659992795D}" name="Klo" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{6085A278-C5F2-4B9B-81ED-75AC44992D6A}" name="Küche" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{71B99BB4-E121-4AC6-B2CC-B8283468FBBB}" name="Esszimmer" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{E4662B22-8FAD-414C-AAE6-B24E2CAB28D4}" name="Wohnzimmer" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{204170EB-6A51-4091-9F43-2BB5DD265154}" name="Speis" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{18FF780B-8CBB-488D-B52A-5E6374864CB2}" name="Bad" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{57EE2B1E-BB13-46B9-B6BC-CF4F5FCCDB66}" name="Gang" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{E92F9A3C-E1C5-4882-916E-DA389241E99B}" name="Schalafzimmer" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{3799BA4D-FAD2-475F-B312-0E659992795D}" name="Klo" dataDxfId="10"/>
     <tableColumn id="17" xr3:uid="{17A122D9-4F1D-40D7-A3F8-16439D99B479}" name="KNX-fähig"/>
-    <tableColumn id="6" xr3:uid="{12170A0C-6A62-4A83-B4B9-2C3B5CC64F58}" name="Menge KNX-Geräte" dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{12170A0C-6A62-4A83-B4B9-2C3B5CC64F58}" name="Menge KNX-Geräte" dataDxfId="9">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E30A86F8-AD60-4262-90C1-41270FEC02A0}" name="Endpreis" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="6" dataCellStyle="Währung">
+    <tableColumn id="8" xr3:uid="{E30A86F8-AD60-4262-90C1-41270FEC02A0}" name="Endpreis" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="0" dataCellStyle="Währung">
       <calculatedColumnFormula>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -839,7 +839,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AAEA202F-2E12-4951-852F-9E886146E92D}" name="Tabelle2" displayName="Tabelle2" ref="A2:K6" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AAEA202F-2E12-4951-852F-9E886146E92D}" name="Tabelle2" displayName="Tabelle2" ref="A2:K6" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A2:K6" xr:uid="{64997CFE-B058-4B80-8521-0376DB419888}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{A1D940C5-2DB8-4D38-B7EB-A7046EC82315}" name="Raum"/>
@@ -852,7 +852,7 @@
     <tableColumn id="8" xr3:uid="{523F6610-FD02-45F2-B727-E43C97AB7701}" name="Schalafzimmer"/>
     <tableColumn id="9" xr3:uid="{439EBBEB-C21F-4366-B359-B750404A6C1C}" name="Klo"/>
     <tableColumn id="11" xr3:uid="{21D0A73C-1259-4B5E-9160-E7893ABAD12E}" name="Hof"/>
-    <tableColumn id="10" xr3:uid="{3550BC49-49F6-41E8-A343-46EDD7312783}" name="Summe" dataDxfId="12">
+    <tableColumn id="10" xr3:uid="{3550BC49-49F6-41E8-A343-46EDD7312783}" name="Summe" dataDxfId="6">
       <calculatedColumnFormula>SUM(Tabelle2[[#This Row],[Küche]:[Hof]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -865,11 +865,11 @@
   <autoFilter ref="A1:F2" xr:uid="{2EE5AB28-B397-43CB-900D-A5B522ECDF9C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4DA6D9DF-2A14-4891-9CC3-08E42535F812}" name="Datum"/>
-    <tableColumn id="2" xr3:uid="{A2802040-74DD-489D-83C4-558D72967D5F}" name="Händler" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{5EE9FC28-C66B-4A96-9BA9-8280EC2E6589}" name="Kategorie" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{BD741B7D-FC24-407C-91C4-67731AA078DF}" name="Beschreibung" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{A87B7F3E-D2EF-4CAF-A80F-6E407E6EC1B1}" name="Konto" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{82BE7E6D-F523-4932-9103-8E1EB61BB46A}" name="Betrag" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{A2802040-74DD-489D-83C4-558D72967D5F}" name="Händler" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{5EE9FC28-C66B-4A96-9BA9-8280EC2E6589}" name="Kategorie" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{BD741B7D-FC24-407C-91C4-67731AA078DF}" name="Beschreibung" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{A87B7F3E-D2EF-4CAF-A80F-6E407E6EC1B1}" name="Konto" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{82BE7E6D-F523-4932-9103-8E1EB61BB46A}" name="Betrag" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1193,27 +1193,27 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="3" width="6" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="5" width="5.33203125" customWidth="1" outlineLevel="2"/>
-    <col min="6" max="6" width="71.88671875" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.28515625" customWidth="1" outlineLevel="2"/>
+    <col min="6" max="6" width="71.85546875" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="16" width="6" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +1236,7 @@
       <c r="R1" s="24"/>
       <c r="S1" s="24"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -1257,7 +1257,7 @@
       <c r="R2" s="24"/>
       <c r="S2" s="24"/>
     </row>
-    <row r="4" spans="1:19" s="3" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" s="3" customFormat="1" ht="83.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>216.84</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>51.16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>249.69</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>140.07</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>143.21</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>413.23</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>465.13</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>216.2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>550.52</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>121.2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>237.51</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>131.35</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>336.17</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2066,13 +2066,13 @@
         <v>149.81</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S20" s="20">
         <f>SUBTOTAL(109,Tabelle1[Endpreis])</f>
         <v>3524.6899999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U21" s="12" t="s">
         <v>53</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U22" s="14" t="s">
         <v>54</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U23" s="12" t="s">
         <v>50</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U24" s="14" t="s">
         <v>51</v>
       </c>
@@ -2114,29 +2114,29 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="U21:V21">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="between">
       <formula>21</formula>
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="lessThanOrEqual">
       <formula>$C$14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
       <formula>$C$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThan">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="lessThanOrEqual">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2168,19 +2168,19 @@
   <dimension ref="A2:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>55</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -2315,20 +2315,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>44168</v>
       </c>
@@ -2380,18 +2380,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB6F161-F071-4988-9777-7297A2D0610F}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>79</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>80</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>81</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>82</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>100</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>85</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>86</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>82</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>101</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>102</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>89</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>85</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>90</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>91</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>94</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>92</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>82</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>100</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>96</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>16</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>97</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>98</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>99</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>82</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>100</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>82</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>125</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>

--- a/Elektro/Auflistung_KNX_Material.xlsx
+++ b/Elektro/Auflistung_KNX_Material.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente_Thomas_Brandl\GIT_Repository\Umbau\Elektro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C709B1-F28D-4A8F-A233-8F8EF1DEFFB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7DF039-F931-47E9-A5E9-6F90D772E558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6F8353D-0510-4489-8C99-156F73AB2641}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A6F8353D-0510-4489-8C99-156F73AB2641}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="130">
   <si>
     <t>KNX-Elektroinstallation</t>
   </si>
@@ -420,6 +420,12 @@
   </si>
   <si>
     <t>F24</t>
+  </si>
+  <si>
+    <t>Wiro</t>
+  </si>
+  <si>
+    <t>Einzugsband</t>
   </si>
 </sst>
 </file>
@@ -861,8 +867,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9BB94BBB-F518-4C7C-98BC-BC0E1FBAE5DF}" name="Tabelle3" displayName="Tabelle3" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2" xr:uid="{2EE5AB28-B397-43CB-900D-A5B522ECDF9C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9BB94BBB-F518-4C7C-98BC-BC0E1FBAE5DF}" name="Tabelle3" displayName="Tabelle3" ref="A1:F3" totalsRowShown="0">
+  <autoFilter ref="A1:F3" xr:uid="{2EE5AB28-B397-43CB-900D-A5B522ECDF9C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4DA6D9DF-2A14-4891-9CC3-08E42535F812}" name="Datum"/>
     <tableColumn id="2" xr3:uid="{A2802040-74DD-489D-83C4-558D72967D5F}" name="Händler" dataDxfId="5"/>
@@ -1193,7 +1199,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -1257,7 +1263,7 @@
       <c r="R2" s="24"/>
       <c r="S2" s="24"/>
     </row>
-    <row r="4" spans="1:19" s="3" customFormat="1" ht="83.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="3" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -2167,8 +2173,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A2:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2235,14 +2241,14 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
         <f>SUM(Tabelle2[[#This Row],[Küche]:[Hof]])</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2273,9 +2279,12 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
       <c r="K5">
         <f>SUM(Tabelle2[[#This Row],[Küche]:[Hof]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2312,10 +2321,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDBC38B-CA97-415B-9D7B-EBA766BFF152}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2366,6 +2375,26 @@
       </c>
       <c r="F2" s="22">
         <v>296.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>44181</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="22">
+        <v>52.46</v>
       </c>
     </row>
   </sheetData>

--- a/Elektro/Auflistung_KNX_Material.xlsx
+++ b/Elektro/Auflistung_KNX_Material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente_Thomas_Brandl\GIT_Repository\Umbau\Elektro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7DF039-F931-47E9-A5E9-6F90D772E558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91384FA-10EA-42E6-A899-AB6845923335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A6F8353D-0510-4489-8C99-156F73AB2641}"/>
   </bookViews>
@@ -1200,7 +1200,7 @@
   <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="V23" s="13">
         <f>Schaltstellen!K3+Schaltstellen!K5+Schaltstellen!K6*2</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2174,7 +2174,7 @@
   <dimension ref="A2:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,7 +2226,7 @@
         <v>33</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="K3">
         <f>SUM(Tabelle2[[#This Row],[Küche]:[Hof]])</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2274,17 +2274,17 @@
         <v>35</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="K5">
         <f>SUM(Tabelle2[[#This Row],[Küche]:[Hof]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">

--- a/Elektro/Auflistung_KNX_Material.xlsx
+++ b/Elektro/Auflistung_KNX_Material.xlsx
@@ -5,18 +5,19 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente_Thomas_Brandl\GIT_Repository\Umbau\Elektro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tom\Documents\Umbau\Elektro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91384FA-10EA-42E6-A899-AB6845923335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64256C5-3A58-4641-812F-05DD5D38A0E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A6F8353D-0510-4489-8C99-156F73AB2641}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{A6F8353D-0510-4489-8C99-156F73AB2641}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
     <sheet name="Schaltstellen" sheetId="2" r:id="rId2"/>
     <sheet name="Kosten" sheetId="3" r:id="rId3"/>
     <sheet name="Sicherungskasten" sheetId="4" r:id="rId4"/>
+    <sheet name="Unterverteilung Keller" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="141">
   <si>
     <t>KNX-Elektroinstallation</t>
   </si>
@@ -426,6 +427,39 @@
   </si>
   <si>
     <t>Einzugsband</t>
+  </si>
+  <si>
+    <t>Sicherungen</t>
+  </si>
+  <si>
+    <t>Garage Rieber</t>
+  </si>
+  <si>
+    <t>Keller</t>
+  </si>
+  <si>
+    <t>Beleuchtung Hof</t>
+  </si>
+  <si>
+    <t>Lichtstrom Stadl</t>
+  </si>
+  <si>
+    <t>Kraft Stadl</t>
+  </si>
+  <si>
+    <t>Garage und Garten</t>
+  </si>
+  <si>
+    <t>FI-LS1</t>
+  </si>
+  <si>
+    <t>FI1</t>
+  </si>
+  <si>
+    <t>FI-LS2</t>
+  </si>
+  <si>
+    <t>FI2</t>
   </si>
 </sst>
 </file>
@@ -558,7 +592,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -606,6 +640,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -613,6 +650,57 @@
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9696"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     </dxf>
@@ -717,57 +805,6 @@
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9696"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -789,7 +826,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FFD03A8-96BD-4E09-BF02-3DEFE14EA902}" name="Tabelle1" displayName="Tabelle1" ref="A4:S20" totalsRowCount="1" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FFD03A8-96BD-4E09-BF02-3DEFE14EA902}" name="Tabelle1" displayName="Tabelle1" ref="A4:S20" totalsRowCount="1" headerRowDxfId="27">
   <autoFilter ref="A4:S19" xr:uid="{96AC54A7-3AF8-4232-A7CA-7456C1206A29}">
     <filterColumn colId="0">
       <filters>
@@ -814,29 +851,29 @@
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{F5042A58-498A-4C97-BACF-B3C8328DBC5F}" name="Bezeichnung"/>
     <tableColumn id="18" xr3:uid="{EBD698E9-BE7C-4EEA-BF83-B807A3FE3703}" name="Kanäle pro Gerät"/>
-    <tableColumn id="20" xr3:uid="{48770584-C7A0-4EFF-A5AB-7C1C84E8310E}" name="Kanäle gesamt" dataDxfId="20">
+    <tableColumn id="20" xr3:uid="{48770584-C7A0-4EFF-A5AB-7C1C84E8310E}" name="Kanäle gesamt" dataDxfId="26">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Kanäle pro Gerät]]*Tabelle1[[#This Row],[Menge KNX-Geräte]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{FAF1D32A-393A-44C7-BE68-7B040F6D94CE}" name="TE"/>
-    <tableColumn id="19" xr3:uid="{D57E5FC7-9060-4F5D-BEF2-3E71373B4491}" name="Platzbedarf" dataDxfId="19">
+    <tableColumn id="19" xr3:uid="{D57E5FC7-9060-4F5D-BEF2-3E71373B4491}" name="Platzbedarf" dataDxfId="25">
       <calculatedColumnFormula>Tabelle1[[#This Row],[TE]]*SUM(Tabelle1[[#This Row],[Küche]:[Klo]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0CA81A17-BA15-4983-A8A2-0242A8B6B19B}" name="Herstellernummer" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{0CA81A17-BA15-4983-A8A2-0242A8B6B19B}" name="Herstellernummer" dataDxfId="24"/>
     <tableColumn id="4" xr3:uid="{4718EDFC-681A-42DA-B15F-DB810E8C969C}" name="Preis" dataCellStyle="Währung"/>
     <tableColumn id="5" xr3:uid="{A4E90C18-896F-4852-8F34-1136052F1D04}" name="Kategorie"/>
-    <tableColumn id="2" xr3:uid="{6085A278-C5F2-4B9B-81ED-75AC44992D6A}" name="Küche" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{71B99BB4-E121-4AC6-B2CC-B8283468FBBB}" name="Esszimmer" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{E4662B22-8FAD-414C-AAE6-B24E2CAB28D4}" name="Wohnzimmer" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{204170EB-6A51-4091-9F43-2BB5DD265154}" name="Speis" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{18FF780B-8CBB-488D-B52A-5E6374864CB2}" name="Bad" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{57EE2B1E-BB13-46B9-B6BC-CF4F5FCCDB66}" name="Gang" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{E92F9A3C-E1C5-4882-916E-DA389241E99B}" name="Schalafzimmer" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{3799BA4D-FAD2-475F-B312-0E659992795D}" name="Klo" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{6085A278-C5F2-4B9B-81ED-75AC44992D6A}" name="Küche" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{71B99BB4-E121-4AC6-B2CC-B8283468FBBB}" name="Esszimmer" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{E4662B22-8FAD-414C-AAE6-B24E2CAB28D4}" name="Wohnzimmer" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{204170EB-6A51-4091-9F43-2BB5DD265154}" name="Speis" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{18FF780B-8CBB-488D-B52A-5E6374864CB2}" name="Bad" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{57EE2B1E-BB13-46B9-B6BC-CF4F5FCCDB66}" name="Gang" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{E92F9A3C-E1C5-4882-916E-DA389241E99B}" name="Schalafzimmer" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{3799BA4D-FAD2-475F-B312-0E659992795D}" name="Klo" dataDxfId="16"/>
     <tableColumn id="17" xr3:uid="{17A122D9-4F1D-40D7-A3F8-16439D99B479}" name="KNX-fähig"/>
-    <tableColumn id="6" xr3:uid="{12170A0C-6A62-4A83-B4B9-2C3B5CC64F58}" name="Menge KNX-Geräte" dataDxfId="9">
+    <tableColumn id="6" xr3:uid="{12170A0C-6A62-4A83-B4B9-2C3B5CC64F58}" name="Menge KNX-Geräte" dataDxfId="15">
       <calculatedColumnFormula>IF(Tabelle1[[#This Row],[KNX-fähig]]=1,SUM(Tabelle1[[#This Row],[Küche]:[Klo]]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E30A86F8-AD60-4262-90C1-41270FEC02A0}" name="Endpreis" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="0" dataCellStyle="Währung">
+    <tableColumn id="8" xr3:uid="{E30A86F8-AD60-4262-90C1-41270FEC02A0}" name="Endpreis" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="6" dataCellStyle="Währung">
       <calculatedColumnFormula>SUM(Tabelle1[[#This Row],[Küche]:[Klo]])*Tabelle1[[#This Row],[Preis]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -845,7 +882,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AAEA202F-2E12-4951-852F-9E886146E92D}" name="Tabelle2" displayName="Tabelle2" ref="A2:K6" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AAEA202F-2E12-4951-852F-9E886146E92D}" name="Tabelle2" displayName="Tabelle2" ref="A2:K6" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A2:K6" xr:uid="{64997CFE-B058-4B80-8521-0376DB419888}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{A1D940C5-2DB8-4D38-B7EB-A7046EC82315}" name="Raum"/>
@@ -858,7 +895,7 @@
     <tableColumn id="8" xr3:uid="{523F6610-FD02-45F2-B727-E43C97AB7701}" name="Schalafzimmer"/>
     <tableColumn id="9" xr3:uid="{439EBBEB-C21F-4366-B359-B750404A6C1C}" name="Klo"/>
     <tableColumn id="11" xr3:uid="{21D0A73C-1259-4B5E-9160-E7893ABAD12E}" name="Hof"/>
-    <tableColumn id="10" xr3:uid="{3550BC49-49F6-41E8-A343-46EDD7312783}" name="Summe" dataDxfId="6">
+    <tableColumn id="10" xr3:uid="{3550BC49-49F6-41E8-A343-46EDD7312783}" name="Summe" dataDxfId="12">
       <calculatedColumnFormula>SUM(Tabelle2[[#This Row],[Küche]:[Hof]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -871,11 +908,11 @@
   <autoFilter ref="A1:F3" xr:uid="{2EE5AB28-B397-43CB-900D-A5B522ECDF9C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4DA6D9DF-2A14-4891-9CC3-08E42535F812}" name="Datum"/>
-    <tableColumn id="2" xr3:uid="{A2802040-74DD-489D-83C4-558D72967D5F}" name="Händler" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{5EE9FC28-C66B-4A96-9BA9-8280EC2E6589}" name="Kategorie" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{BD741B7D-FC24-407C-91C4-67731AA078DF}" name="Beschreibung" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{A87B7F3E-D2EF-4CAF-A80F-6E407E6EC1B1}" name="Konto" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{82BE7E6D-F523-4932-9103-8E1EB61BB46A}" name="Betrag" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{A2802040-74DD-489D-83C4-558D72967D5F}" name="Händler" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{5EE9FC28-C66B-4A96-9BA9-8280EC2E6589}" name="Kategorie" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{BD741B7D-FC24-407C-91C4-67731AA078DF}" name="Beschreibung" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{A87B7F3E-D2EF-4CAF-A80F-6E407E6EC1B1}" name="Konto" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{82BE7E6D-F523-4932-9103-8E1EB61BB46A}" name="Betrag" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1203,23 +1240,23 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
     <col min="2" max="3" width="6" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="5" width="5.28515625" customWidth="1" outlineLevel="2"/>
-    <col min="6" max="6" width="71.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.33203125" customWidth="1" outlineLevel="2"/>
+    <col min="6" max="6" width="71.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="16" width="6" customWidth="1" outlineLevel="1"/>
     <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1279,7 @@
       <c r="R1" s="24"/>
       <c r="S1" s="24"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -1263,7 +1300,7 @@
       <c r="R2" s="24"/>
       <c r="S2" s="24"/>
     </row>
-    <row r="4" spans="1:19" s="3" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="3" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1322,7 +1359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1375,7 +1412,7 @@
         <v>216.84</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1424,7 +1461,7 @@
         <v>51.16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1473,7 +1510,7 @@
         <v>249.69</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1522,7 +1559,7 @@
         <v>140.07</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1571,7 +1608,7 @@
         <v>143.21</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -1620,7 +1657,7 @@
         <v>413.23</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1669,7 +1706,7 @@
         <v>465.13</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -1715,7 +1752,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1764,7 +1801,7 @@
         <v>216.2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1819,7 +1856,7 @@
         <v>550.52</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1868,7 +1905,7 @@
         <v>121.2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1917,7 +1954,7 @@
         <v>237.51</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1974,7 +2011,7 @@
         <v>131.35</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -2023,7 +2060,7 @@
         <v>336.17</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -2072,13 +2109,13 @@
         <v>149.81</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="S20" s="20">
         <f>SUBTOTAL(109,Tabelle1[Endpreis])</f>
         <v>3524.6899999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="U21" s="12" t="s">
         <v>53</v>
       </c>
@@ -2087,7 +2124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="U22" s="14" t="s">
         <v>54</v>
       </c>
@@ -2096,7 +2133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="U23" s="12" t="s">
         <v>50</v>
       </c>
@@ -2105,7 +2142,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="U24" s="14" t="s">
         <v>51</v>
       </c>
@@ -2120,29 +2157,29 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="U21:V21">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
       <formula>21</formula>
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThanOrEqual">
       <formula>$C$14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>$C$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
       <formula>$C$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>$C$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2173,20 +2210,20 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A2:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="73.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>55</v>
       </c>
@@ -2221,7 +2258,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2251,7 +2288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2269,7 +2306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2287,7 +2324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -2327,17 +2364,17 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -2357,7 +2394,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21">
         <v>44168</v>
       </c>
@@ -2377,7 +2414,7 @@
         <v>296.82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>44181</v>
       </c>
@@ -2413,14 +2450,14 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -2434,7 +2471,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -2445,7 +2482,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>79</v>
       </c>
@@ -2453,7 +2490,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>80</v>
       </c>
@@ -2461,7 +2498,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>81</v>
       </c>
@@ -2469,7 +2506,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>82</v>
       </c>
@@ -2477,7 +2514,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>100</v>
       </c>
@@ -2485,7 +2522,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2496,7 +2533,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>85</v>
       </c>
@@ -2504,7 +2541,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>86</v>
       </c>
@@ -2512,7 +2549,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>87</v>
       </c>
@@ -2520,7 +2557,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>82</v>
       </c>
@@ -2528,7 +2565,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>101</v>
       </c>
@@ -2536,7 +2573,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>102</v>
       </c>
@@ -2544,7 +2581,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2555,7 +2592,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>89</v>
       </c>
@@ -2563,7 +2600,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>85</v>
       </c>
@@ -2571,7 +2608,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>90</v>
       </c>
@@ -2579,7 +2616,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>91</v>
       </c>
@@ -2587,7 +2624,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>94</v>
       </c>
@@ -2595,7 +2632,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>92</v>
       </c>
@@ -2603,7 +2640,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>82</v>
       </c>
@@ -2611,7 +2648,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>100</v>
       </c>
@@ -2619,7 +2656,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2630,7 +2667,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>96</v>
       </c>
@@ -2638,7 +2675,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>16</v>
       </c>
@@ -2646,7 +2683,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2657,7 +2694,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>97</v>
       </c>
@@ -2665,7 +2702,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>98</v>
       </c>
@@ -2673,7 +2710,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>99</v>
       </c>
@@ -2681,7 +2718,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>82</v>
       </c>
@@ -2689,7 +2726,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>100</v>
       </c>
@@ -2697,7 +2734,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -2705,7 +2742,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -2716,7 +2753,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>82</v>
       </c>
@@ -2724,7 +2761,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>125</v>
       </c>
@@ -2732,7 +2769,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -2749,4 +2786,102 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6A77BC-4C1E-413E-A308-080AFE406D61}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>